--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Glass_withoutdupl_norm_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Glass_withoutdupl_norm_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,6214 +394,5569 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08883606185321667</v>
+        <v>0.09225946086823594</v>
       </c>
       <c r="C2">
-        <v>0.1262503486105827</v>
+        <v>0.1274196660896768</v>
       </c>
       <c r="D2">
-        <v>0.09229676634548184</v>
+        <v>0.09283831469492812</v>
       </c>
       <c r="E2">
-        <v>0.09507959528798238</v>
+        <v>0.09515173045865538</v>
       </c>
       <c r="F2">
-        <v>0.2709485803175395</v>
+        <v>0.3131489060950231</v>
       </c>
       <c r="G2">
-        <v>0.1534795398890249</v>
+        <v>0.1654655165371345</v>
       </c>
       <c r="H2">
-        <v>0.1064204564111764</v>
-      </c>
-      <c r="I2">
-        <v>0.06668865128499546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1137164052563462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1362398903889155</v>
+        <v>0.1590483582098989</v>
       </c>
       <c r="C3">
-        <v>0.138406631886156</v>
+        <v>0.1587165487867667</v>
       </c>
       <c r="D3">
-        <v>0.135019484198167</v>
+        <v>0.1520348795453632</v>
       </c>
       <c r="E3">
-        <v>0.1187015600429678</v>
+        <v>0.1327169889017332</v>
       </c>
       <c r="F3">
-        <v>0.1121390992747346</v>
+        <v>0.1278687487032514</v>
       </c>
       <c r="G3">
-        <v>0.09662898094894296</v>
+        <v>0.1107382112283383</v>
       </c>
       <c r="H3">
-        <v>0.1354325557089397</v>
-      </c>
-      <c r="I3">
-        <v>0.1274317975511765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1588762646246482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1035306307862196</v>
+        <v>0.09898431153053688</v>
       </c>
       <c r="C4">
-        <v>0.1446261803936263</v>
+        <v>0.1646875299579815</v>
       </c>
       <c r="D4">
-        <v>0.1184480674229301</v>
+        <v>0.1260986828699351</v>
       </c>
       <c r="E4">
-        <v>0.1048756504534576</v>
+        <v>0.1124634271796663</v>
       </c>
       <c r="F4">
-        <v>0.1994860647961358</v>
+        <v>0.2305408341681075</v>
       </c>
       <c r="G4">
-        <v>0.1316884498168339</v>
+        <v>0.1520518841746341</v>
       </c>
       <c r="H4">
-        <v>0.1008651391018344</v>
-      </c>
-      <c r="I4">
-        <v>0.09647981722896243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1151733301191386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2080142281989447</v>
+        <v>0.2190924295915248</v>
       </c>
       <c r="C5">
-        <v>0.110027599501806</v>
+        <v>0.1276028543192599</v>
       </c>
       <c r="D5">
-        <v>0.0606415784583917</v>
+        <v>0.06522307879110166</v>
       </c>
       <c r="E5">
-        <v>0.05355145827292024</v>
+        <v>0.05890865143422055</v>
       </c>
       <c r="F5">
-        <v>0.05810656370276122</v>
+        <v>0.06461567765337203</v>
       </c>
       <c r="G5">
-        <v>0.1707553160239188</v>
+        <v>0.192067147773118</v>
       </c>
       <c r="H5">
-        <v>0.2302341539276709</v>
-      </c>
-      <c r="I5">
-        <v>0.1086691019135863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.2724901604374031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2982100897091554</v>
+        <v>0.3202277257107511</v>
       </c>
       <c r="C6">
-        <v>0.3380772097633242</v>
+        <v>0.3629191265304661</v>
       </c>
       <c r="D6">
-        <v>0.02737992127943596</v>
+        <v>0.03046673026877112</v>
       </c>
       <c r="E6">
-        <v>0.02434006214316892</v>
+        <v>0.0244407893145707</v>
       </c>
       <c r="F6">
-        <v>0.04134534508308951</v>
+        <v>0.0463406753628588</v>
       </c>
       <c r="G6">
-        <v>0.04951294756316844</v>
+        <v>0.05781025578084705</v>
       </c>
       <c r="H6">
-        <v>0.1457745761393795</v>
-      </c>
-      <c r="I6">
-        <v>0.07535984831927803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1577946970317352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1307087752300072</v>
+        <v>0.1569940096544737</v>
       </c>
       <c r="C7">
-        <v>0.1375045985867848</v>
+        <v>0.1611612823057001</v>
       </c>
       <c r="D7">
-        <v>0.1139916576957628</v>
+        <v>0.1264687383906979</v>
       </c>
       <c r="E7">
-        <v>0.114829450749788</v>
+        <v>0.1302916727316042</v>
       </c>
       <c r="F7">
-        <v>0.1013301956628262</v>
+        <v>0.1195202858406861</v>
       </c>
       <c r="G7">
-        <v>0.1452490659934449</v>
+        <v>0.1647830004267568</v>
       </c>
       <c r="H7">
-        <v>0.1202224909681349</v>
-      </c>
-      <c r="I7">
-        <v>0.1361637651132514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1407810106500812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1745007599747275</v>
+        <v>0.202230556897072</v>
       </c>
       <c r="C8">
-        <v>0.1708059459270519</v>
+        <v>0.2117365099224034</v>
       </c>
       <c r="D8">
-        <v>0.06897317565669567</v>
+        <v>0.07942553015850103</v>
       </c>
       <c r="E8">
-        <v>0.07552061521789513</v>
+        <v>0.08742118269552189</v>
       </c>
       <c r="F8">
-        <v>0.06445761867063333</v>
+        <v>0.07655670040852977</v>
       </c>
       <c r="G8">
-        <v>0.1433337318603641</v>
+        <v>0.1673177472774689</v>
       </c>
       <c r="H8">
-        <v>0.1497219465252836</v>
-      </c>
-      <c r="I8">
-        <v>0.1526862061673487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1753117726405031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1436578963393944</v>
+        <v>0.1651378693821214</v>
       </c>
       <c r="C9">
-        <v>0.1430798059199961</v>
+        <v>0.1704406685378666</v>
       </c>
       <c r="D9">
-        <v>0.09143560607390423</v>
+        <v>0.104348963436537</v>
       </c>
       <c r="E9">
-        <v>0.09944913432008408</v>
+        <v>0.1129746550270478</v>
       </c>
       <c r="F9">
-        <v>0.1026526287648681</v>
+        <v>0.1216072070033474</v>
       </c>
       <c r="G9">
-        <v>0.1538946200372829</v>
+        <v>0.1735481022359825</v>
       </c>
       <c r="H9">
-        <v>0.1306386510888657</v>
-      </c>
-      <c r="I9">
-        <v>0.1351916574556047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1519425343770973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1402594078158336</v>
+        <v>0.1639221595561016</v>
       </c>
       <c r="C10">
-        <v>0.1317297595292109</v>
+        <v>0.1486314220604504</v>
       </c>
       <c r="D10">
-        <v>0.0798779488465923</v>
+        <v>0.07952198256366284</v>
       </c>
       <c r="E10">
-        <v>0.08213484435813694</v>
+        <v>0.08830359518757884</v>
       </c>
       <c r="F10">
-        <v>0.1027124148684154</v>
+        <v>0.1104950924656388</v>
       </c>
       <c r="G10">
-        <v>0.1990382792967558</v>
+        <v>0.2451554243872813</v>
       </c>
       <c r="H10">
-        <v>0.1458600596763787</v>
-      </c>
-      <c r="I10">
-        <v>0.1183872856086764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1639703237792862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.09694817337495634</v>
+        <v>0.1055314392546662</v>
       </c>
       <c r="C11">
-        <v>0.1219329336688601</v>
+        <v>0.1378060738022509</v>
       </c>
       <c r="D11">
-        <v>0.1213397475644204</v>
+        <v>0.127027937987095</v>
       </c>
       <c r="E11">
-        <v>0.1195990061220098</v>
+        <v>0.1309121205969509</v>
       </c>
       <c r="F11">
-        <v>0.1808349076233408</v>
+        <v>0.2067717863852996</v>
       </c>
       <c r="G11">
-        <v>0.1611128780345698</v>
+        <v>0.1830295999116998</v>
       </c>
       <c r="H11">
-        <v>0.0959003800138603</v>
-      </c>
-      <c r="I11">
-        <v>0.1023319735979826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1089210420620376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1102042503377613</v>
+        <v>0.1076816443348585</v>
       </c>
       <c r="C12">
-        <v>0.1630361738172374</v>
+        <v>0.1690389345546818</v>
       </c>
       <c r="D12">
-        <v>0.1358828215612519</v>
+        <v>0.1351790082393582</v>
       </c>
       <c r="E12">
-        <v>0.1165101363371256</v>
+        <v>0.1277675131725557</v>
       </c>
       <c r="F12">
-        <v>0.1955881523531455</v>
+        <v>0.2128362509371773</v>
       </c>
       <c r="G12">
-        <v>0.1158332687784215</v>
+        <v>0.1375939416347703</v>
       </c>
       <c r="H12">
-        <v>0.09354475349742718</v>
-      </c>
-      <c r="I12">
-        <v>0.06940044331762962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1099027071265981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1916468050655262</v>
+        <v>0.2321289902694298</v>
       </c>
       <c r="C13">
-        <v>0.1643385124700324</v>
+        <v>0.1956716508061566</v>
       </c>
       <c r="D13">
-        <v>0.08087538535130612</v>
+        <v>0.09279654633561088</v>
       </c>
       <c r="E13">
-        <v>0.06664031398525554</v>
+        <v>0.07569653899930692</v>
       </c>
       <c r="F13">
-        <v>0.0745073447042702</v>
+        <v>0.08881914265828274</v>
       </c>
       <c r="G13">
-        <v>0.1014645689612234</v>
+        <v>0.1218889597410312</v>
       </c>
       <c r="H13">
-        <v>0.1622010683009855</v>
-      </c>
-      <c r="I13">
-        <v>0.1583260011614004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1929981711901818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1227317165207968</v>
+        <v>0.1419283382898657</v>
       </c>
       <c r="C14">
-        <v>0.1098127662678207</v>
+        <v>0.1188318388592423</v>
       </c>
       <c r="D14">
-        <v>0.1630257385485691</v>
+        <v>0.1930927410017272</v>
       </c>
       <c r="E14">
-        <v>0.147883252847024</v>
+        <v>0.1797970589807414</v>
       </c>
       <c r="F14">
-        <v>0.09779793206771564</v>
+        <v>0.115771808556605</v>
       </c>
       <c r="G14">
-        <v>0.08944452496766232</v>
+        <v>0.1088642556072546</v>
       </c>
       <c r="H14">
-        <v>0.1196328779846283</v>
-      </c>
-      <c r="I14">
-        <v>0.1496711907957832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1417139587045639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2559960486429155</v>
+        <v>0.2989178888695625</v>
       </c>
       <c r="C15">
-        <v>0.1017888898683646</v>
+        <v>0.1126266966073739</v>
       </c>
       <c r="D15">
-        <v>0.09584702485875198</v>
+        <v>0.117563227185584</v>
       </c>
       <c r="E15">
-        <v>0.09392610832734279</v>
+        <v>0.111425123563789</v>
       </c>
       <c r="F15">
-        <v>0.07663374797601581</v>
+        <v>0.08329476434933213</v>
       </c>
       <c r="G15">
-        <v>0.1033866088414289</v>
+        <v>0.1105727381447414</v>
       </c>
       <c r="H15">
-        <v>0.1404255954202157</v>
-      </c>
-      <c r="I15">
-        <v>0.1319959760649647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1655995612796171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1308151559928278</v>
+        <v>0.1461983052389959</v>
       </c>
       <c r="C16">
-        <v>0.1143737352765543</v>
+        <v>0.1302545186818236</v>
       </c>
       <c r="D16">
-        <v>0.1138740728209586</v>
+        <v>0.1288807995281664</v>
       </c>
       <c r="E16">
-        <v>0.1232063818579183</v>
+        <v>0.1409153853946908</v>
       </c>
       <c r="F16">
-        <v>0.1028195845973805</v>
+        <v>0.1185299406906816</v>
       </c>
       <c r="G16">
-        <v>0.1921078249054552</v>
+        <v>0.2219919014169626</v>
       </c>
       <c r="H16">
-        <v>0.09910806027578246</v>
-      </c>
-      <c r="I16">
-        <v>0.1236951842731228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.113229149048679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1102882567436024</v>
+        <v>0.1267372242531218</v>
       </c>
       <c r="C17">
-        <v>0.1234696045058801</v>
+        <v>0.1420305441744804</v>
       </c>
       <c r="D17">
-        <v>0.1177659898987275</v>
+        <v>0.1338375641526264</v>
       </c>
       <c r="E17">
-        <v>0.1270440169409872</v>
+        <v>0.1501272545296128</v>
       </c>
       <c r="F17">
-        <v>0.09155074302632527</v>
+        <v>0.1076039909424953</v>
       </c>
       <c r="G17">
-        <v>0.1823277886280846</v>
+        <v>0.2134560831718902</v>
       </c>
       <c r="H17">
-        <v>0.1103140022756244</v>
-      </c>
-      <c r="I17">
-        <v>0.1372395979807685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1262073387757732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1183279176566699</v>
+        <v>0.1412007945197502</v>
       </c>
       <c r="C18">
-        <v>0.1163225124365913</v>
+        <v>0.139068780659932</v>
       </c>
       <c r="D18">
-        <v>0.1292501119898558</v>
+        <v>0.1487295072961066</v>
       </c>
       <c r="E18">
-        <v>0.1359941205177524</v>
+        <v>0.1549618487653043</v>
       </c>
       <c r="F18">
-        <v>0.1392615512949297</v>
+        <v>0.1532110411920292</v>
       </c>
       <c r="G18">
-        <v>0.1074788568511554</v>
+        <v>0.1241476870938833</v>
       </c>
       <c r="H18">
-        <v>0.1194952651349434</v>
-      </c>
-      <c r="I18">
-        <v>0.1338696641181021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1386803404729943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09964818234884128</v>
+        <v>0.1095317503730337</v>
       </c>
       <c r="C19">
-        <v>0.1048096119488044</v>
+        <v>0.120110804957061</v>
       </c>
       <c r="D19">
-        <v>0.09475835569884346</v>
+        <v>0.1038673624222593</v>
       </c>
       <c r="E19">
-        <v>0.1132340959264588</v>
+        <v>0.1254978412927629</v>
       </c>
       <c r="F19">
-        <v>0.1128844510782713</v>
+        <v>0.1297410469718198</v>
       </c>
       <c r="G19">
-        <v>0.2166109542738991</v>
+        <v>0.2574417819150457</v>
       </c>
       <c r="H19">
-        <v>0.1298976416470997</v>
-      </c>
-      <c r="I19">
-        <v>0.1281567070777818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1538094120680176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1923284407257697</v>
+        <v>0.2233554399702841</v>
       </c>
       <c r="C20">
-        <v>0.1335304124930994</v>
+        <v>0.1523551863070841</v>
       </c>
       <c r="D20">
-        <v>0.04955696827108835</v>
+        <v>0.05676590439763545</v>
       </c>
       <c r="E20">
-        <v>0.04116212594865802</v>
+        <v>0.04682232882594543</v>
       </c>
       <c r="F20">
-        <v>0.1171715142143564</v>
+        <v>0.1374826213490962</v>
       </c>
       <c r="G20">
-        <v>0.1511969711320368</v>
+        <v>0.192804976655979</v>
       </c>
       <c r="H20">
-        <v>0.1648324343095502</v>
-      </c>
-      <c r="I20">
-        <v>0.1502211329054411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1904135424939757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1175516583838824</v>
+        <v>0.1347111626525852</v>
       </c>
       <c r="C21">
-        <v>0.1253986006587727</v>
+        <v>0.1427813216257719</v>
       </c>
       <c r="D21">
-        <v>0.116952187352332</v>
+        <v>0.1333005266556235</v>
       </c>
       <c r="E21">
-        <v>0.1308861120967139</v>
+        <v>0.1506325190496934</v>
       </c>
       <c r="F21">
-        <v>0.1086145599529589</v>
+        <v>0.1271908857043299</v>
       </c>
       <c r="G21">
-        <v>0.1583825334120181</v>
+        <v>0.1753796672887738</v>
       </c>
       <c r="H21">
-        <v>0.1181078735124592</v>
-      </c>
-      <c r="I21">
-        <v>0.1241064746308629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1360039170232221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1282503096642711</v>
+        <v>0.1448908937128449</v>
       </c>
       <c r="C22">
-        <v>0.1253903111036662</v>
+        <v>0.1446160226057836</v>
       </c>
       <c r="D22">
-        <v>0.1159249034304713</v>
+        <v>0.1280654402721648</v>
       </c>
       <c r="E22">
-        <v>0.1220674814229815</v>
+        <v>0.1378195506975134</v>
       </c>
       <c r="F22">
-        <v>0.1088868940582258</v>
+        <v>0.1252404874482921</v>
       </c>
       <c r="G22">
-        <v>0.1436233619756783</v>
+        <v>0.1637293279787285</v>
       </c>
       <c r="H22">
-        <v>0.1310980791967744</v>
-      </c>
-      <c r="I22">
-        <v>0.1247586591479315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1556382772846725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2083288552304178</v>
+        <v>0.2282733846199848</v>
       </c>
       <c r="C23">
-        <v>0.16689665894284</v>
+        <v>0.2055062947596142</v>
       </c>
       <c r="D23">
-        <v>0.06843429602434954</v>
+        <v>0.07191957511543275</v>
       </c>
       <c r="E23">
-        <v>0.07607778493445699</v>
+        <v>0.08248738600474136</v>
       </c>
       <c r="F23">
-        <v>0.07401136163712202</v>
+        <v>0.08421107214504112</v>
       </c>
       <c r="G23">
-        <v>0.1060838439147412</v>
+        <v>0.1223409592450618</v>
       </c>
       <c r="H23">
-        <v>0.1769178113113802</v>
-      </c>
-      <c r="I23">
-        <v>0.1232493880046924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.2052613281101238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09355839635448972</v>
+        <v>0.1100151579510533</v>
       </c>
       <c r="C24">
-        <v>0.1008663313032861</v>
+        <v>0.1201195832202531</v>
       </c>
       <c r="D24">
-        <v>0.1183268159822742</v>
+        <v>0.1385283153010094</v>
       </c>
       <c r="E24">
-        <v>0.1543912684969452</v>
+        <v>0.1756363725661699</v>
       </c>
       <c r="F24">
-        <v>0.0824791617469197</v>
+        <v>0.09642408197753403</v>
       </c>
       <c r="G24">
-        <v>0.1919262639711684</v>
+        <v>0.2224366101941248</v>
       </c>
       <c r="H24">
-        <v>0.1157926901952658</v>
-      </c>
-      <c r="I24">
-        <v>0.142659071949651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1368398787898554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05259751550837884</v>
+        <v>0.06329869613328792</v>
       </c>
       <c r="C25">
-        <v>0.1464870324657347</v>
+        <v>0.1561884838871711</v>
       </c>
       <c r="D25">
-        <v>0.1129386135115454</v>
+        <v>0.1306015486971487</v>
       </c>
       <c r="E25">
-        <v>0.1082813127179469</v>
+        <v>0.1204657743715148</v>
       </c>
       <c r="F25">
-        <v>0.2019036449550605</v>
+        <v>0.2228116922358203</v>
       </c>
       <c r="G25">
-        <v>0.1745089143984598</v>
+        <v>0.1863974599534201</v>
       </c>
       <c r="H25">
-        <v>0.1119199484721789</v>
-      </c>
-      <c r="I25">
-        <v>0.0913630179706949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.120236344721637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1648452037981503</v>
+        <v>0.1797670851602798</v>
       </c>
       <c r="C26">
-        <v>0.1583894752782769</v>
+        <v>0.1762954602185975</v>
       </c>
       <c r="D26">
-        <v>0.04042232911090315</v>
+        <v>0.04349548548610069</v>
       </c>
       <c r="E26">
-        <v>0.03542893913236618</v>
+        <v>0.03807928940422987</v>
       </c>
       <c r="F26">
-        <v>0.04235839146271239</v>
+        <v>0.04729999598075133</v>
       </c>
       <c r="G26">
-        <v>0.1464588767620155</v>
+        <v>0.1683227949602021</v>
       </c>
       <c r="H26">
-        <v>0.3095420578650243</v>
-      </c>
-      <c r="I26">
-        <v>0.1025547265905513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.3467398887898386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1241770732312827</v>
+        <v>0.13609757040456</v>
       </c>
       <c r="C27">
-        <v>0.1439552266641571</v>
+        <v>0.1663455924426268</v>
       </c>
       <c r="D27">
-        <v>0.1069815519798172</v>
+        <v>0.1174790132746251</v>
       </c>
       <c r="E27">
-        <v>0.1075280377829523</v>
+        <v>0.1195804860753393</v>
       </c>
       <c r="F27">
-        <v>0.2089398989666534</v>
+        <v>0.2181566287026692</v>
       </c>
       <c r="G27">
-        <v>0.144780271759565</v>
+        <v>0.1614753321211122</v>
       </c>
       <c r="H27">
-        <v>0.07082396128440258</v>
-      </c>
-      <c r="I27">
-        <v>0.09281397833116968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.08086537697906743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1116190107396238</v>
+        <v>0.1307810129663521</v>
       </c>
       <c r="C28">
-        <v>0.1177467692605294</v>
+        <v>0.1355389277882491</v>
       </c>
       <c r="D28">
-        <v>0.1344032549564248</v>
+        <v>0.163300007335022</v>
       </c>
       <c r="E28">
-        <v>0.1328118657909063</v>
+        <v>0.1612982978125042</v>
       </c>
       <c r="F28">
-        <v>0.09446296172879515</v>
+        <v>0.1125905739214601</v>
       </c>
       <c r="G28">
-        <v>0.1328373308205885</v>
+        <v>0.1525418011665682</v>
       </c>
       <c r="H28">
-        <v>0.1190752608082168</v>
-      </c>
-      <c r="I28">
-        <v>0.1570435458949153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1439493790098443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1105075302577911</v>
+        <v>0.1261887612394908</v>
       </c>
       <c r="C29">
-        <v>0.1261257576398855</v>
+        <v>0.140509762293767</v>
       </c>
       <c r="D29">
-        <v>0.132034961865278</v>
+        <v>0.1522007051682253</v>
       </c>
       <c r="E29">
-        <v>0.1400697954469641</v>
+        <v>0.1595060869684502</v>
       </c>
       <c r="F29">
-        <v>0.1404471083347222</v>
+        <v>0.1673397190732197</v>
       </c>
       <c r="G29">
-        <v>0.09798496410706761</v>
+        <v>0.1158773726066232</v>
       </c>
       <c r="H29">
-        <v>0.1226047333337283</v>
-      </c>
-      <c r="I29">
-        <v>0.1302251490145633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1383775926502237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1447494322433988</v>
+        <v>0.1462563455293031</v>
       </c>
       <c r="C30">
-        <v>0.153531402232846</v>
+        <v>0.1756723492322628</v>
       </c>
       <c r="D30">
-        <v>0.1464551440307766</v>
+        <v>0.1494422113262743</v>
       </c>
       <c r="E30">
-        <v>0.1101834555342422</v>
+        <v>0.1138179931262741</v>
       </c>
       <c r="F30">
-        <v>0.1570248114471737</v>
+        <v>0.1935460756920216</v>
       </c>
       <c r="G30">
-        <v>0.1172046146937657</v>
+        <v>0.118067696922886</v>
       </c>
       <c r="H30">
-        <v>0.09236249439560812</v>
-      </c>
-      <c r="I30">
-        <v>0.07848864542218899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1031973281709782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1984284298285321</v>
+        <v>0.1878940835099505</v>
       </c>
       <c r="C31">
-        <v>0.1270479635729122</v>
+        <v>0.1455915781594021</v>
       </c>
       <c r="D31">
-        <v>0.1562063111498199</v>
+        <v>0.182697373803126</v>
       </c>
       <c r="E31">
-        <v>0.1172676718398858</v>
+        <v>0.1195324718032525</v>
       </c>
       <c r="F31">
-        <v>0.1279522021148933</v>
+        <v>0.1660890214185187</v>
       </c>
       <c r="G31">
-        <v>0.09508222093202197</v>
+        <v>0.1056898779237836</v>
       </c>
       <c r="H31">
-        <v>0.08286628155411778</v>
-      </c>
-      <c r="I31">
-        <v>0.09514891900781704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.09250559338196679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.08955943845900474</v>
+        <v>0.0995050888733431</v>
       </c>
       <c r="C32">
-        <v>0.1101325613058965</v>
+        <v>0.1232109302386522</v>
       </c>
       <c r="D32">
-        <v>0.1006559470500577</v>
+        <v>0.1087634750272784</v>
       </c>
       <c r="E32">
-        <v>0.1084499503473817</v>
+        <v>0.1178425237623987</v>
       </c>
       <c r="F32">
-        <v>0.1564050721289261</v>
+        <v>0.1740547020632164</v>
       </c>
       <c r="G32">
-        <v>0.2066910281448902</v>
+        <v>0.235223869153805</v>
       </c>
       <c r="H32">
-        <v>0.1267028615021029</v>
-      </c>
-      <c r="I32">
-        <v>0.10140314106174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1413994108813062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.118859222967868</v>
+        <v>0.1320700269006908</v>
       </c>
       <c r="C33">
-        <v>0.1335861176868746</v>
+        <v>0.1519224524574861</v>
       </c>
       <c r="D33">
-        <v>0.1247023851141714</v>
+        <v>0.1434458004103351</v>
       </c>
       <c r="E33">
-        <v>0.1267654656589329</v>
+        <v>0.144199955385057</v>
       </c>
       <c r="F33">
-        <v>0.09385140386980044</v>
+        <v>0.1077023220915063</v>
       </c>
       <c r="G33">
-        <v>0.1596182372762149</v>
+        <v>0.1786824331517585</v>
       </c>
       <c r="H33">
-        <v>0.1250348424758435</v>
-      </c>
-      <c r="I33">
-        <v>0.1175823249502943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1419770096031662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.3578958920212</v>
+        <v>0.4055210114165665</v>
       </c>
       <c r="C34">
-        <v>0.1609997515743022</v>
+        <v>0.1754117820787403</v>
       </c>
       <c r="D34">
-        <v>0.05646124912704059</v>
+        <v>0.06540468119608273</v>
       </c>
       <c r="E34">
-        <v>0.03071333172777178</v>
+        <v>0.03697772589725441</v>
       </c>
       <c r="F34">
-        <v>0.06442602300870098</v>
+        <v>0.07553488802127484</v>
       </c>
       <c r="G34">
-        <v>0.08403691564010089</v>
+        <v>0.09771373537809518</v>
       </c>
       <c r="H34">
-        <v>0.1219891494046936</v>
-      </c>
-      <c r="I34">
-        <v>0.12347768749619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1434361760119861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.08498343158993529</v>
+        <v>0.09625199393072498</v>
       </c>
       <c r="C35">
-        <v>0.1230899361418157</v>
+        <v>0.1366850449722043</v>
       </c>
       <c r="D35">
-        <v>0.09806736520651527</v>
+        <v>0.1074730533595136</v>
       </c>
       <c r="E35">
-        <v>0.1259862215127596</v>
+        <v>0.1424877680068585</v>
       </c>
       <c r="F35">
-        <v>0.1883900401173328</v>
+        <v>0.2152840041167632</v>
       </c>
       <c r="G35">
-        <v>0.1768528805161245</v>
+        <v>0.1983502593567653</v>
       </c>
       <c r="H35">
-        <v>0.0943508468781063</v>
-      </c>
-      <c r="I35">
-        <v>0.1082792780374104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1034678762571702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1997348609103945</v>
+        <v>0.211700768377082</v>
       </c>
       <c r="C36">
-        <v>0.1529859122596004</v>
+        <v>0.1750456548077233</v>
       </c>
       <c r="D36">
-        <v>0.1036495387266801</v>
+        <v>0.1126474724700596</v>
       </c>
       <c r="E36">
-        <v>0.1079685850202947</v>
+        <v>0.1142600958867507</v>
       </c>
       <c r="F36">
-        <v>0.08779283014367953</v>
+        <v>0.1045424806654762</v>
       </c>
       <c r="G36">
-        <v>0.1432747725667049</v>
+        <v>0.1581691879533299</v>
       </c>
       <c r="H36">
-        <v>0.1073142517745168</v>
-      </c>
-      <c r="I36">
-        <v>0.09727924859812906</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1236343398395783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.09390014985872021</v>
+        <v>0.1034706099191028</v>
       </c>
       <c r="C37">
-        <v>0.1104641426098523</v>
+        <v>0.1249599221360267</v>
       </c>
       <c r="D37">
-        <v>0.09360804033819164</v>
+        <v>0.105287704821016</v>
       </c>
       <c r="E37">
-        <v>0.1152014973425174</v>
+        <v>0.1284770347593738</v>
       </c>
       <c r="F37">
-        <v>0.1349111577482865</v>
+        <v>0.1508023076924571</v>
       </c>
       <c r="G37">
-        <v>0.2050279961976641</v>
+        <v>0.238839914322159</v>
       </c>
       <c r="H37">
-        <v>0.127238044986954</v>
-      </c>
-      <c r="I37">
-        <v>0.1196489709178137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1481625063498645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1092336518916242</v>
+        <v>0.1182123616331673</v>
       </c>
       <c r="C38">
-        <v>0.1116080995898324</v>
+        <v>0.124723915456854</v>
       </c>
       <c r="D38">
-        <v>0.09505807682185148</v>
+        <v>0.1041432226084493</v>
       </c>
       <c r="E38">
-        <v>0.1031056630115737</v>
+        <v>0.1092356905367511</v>
       </c>
       <c r="F38">
-        <v>0.1840413388435821</v>
+        <v>0.2059307589393048</v>
       </c>
       <c r="G38">
-        <v>0.1911675406257228</v>
+        <v>0.2148252871545342</v>
       </c>
       <c r="H38">
-        <v>0.1093141456595352</v>
-      </c>
-      <c r="I38">
-        <v>0.09647148355627805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1229287636709392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.2068494127382048</v>
+        <v>0.232982552915277</v>
       </c>
       <c r="C39">
-        <v>0.1612338074232812</v>
+        <v>0.1894939474453871</v>
       </c>
       <c r="D39">
-        <v>0.07024759698780061</v>
+        <v>0.07929815540073266</v>
       </c>
       <c r="E39">
-        <v>0.06144911583566331</v>
+        <v>0.07089908284452674</v>
       </c>
       <c r="F39">
-        <v>0.06629930691844943</v>
+        <v>0.07926780644815971</v>
       </c>
       <c r="G39">
-        <v>0.1092494968186567</v>
+        <v>0.1283206226142085</v>
       </c>
       <c r="H39">
-        <v>0.1809679556940655</v>
-      </c>
-      <c r="I39">
-        <v>0.1437033075838785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.2197378323317083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.07966093401624938</v>
+        <v>0.08772889175260874</v>
       </c>
       <c r="C40">
-        <v>0.1422724512533875</v>
+        <v>0.1617610003973703</v>
       </c>
       <c r="D40">
-        <v>0.1189793987354064</v>
+        <v>0.1343095480484372</v>
       </c>
       <c r="E40">
-        <v>0.1151987298674013</v>
+        <v>0.1280307730301465</v>
       </c>
       <c r="F40">
-        <v>0.2493342345747392</v>
+        <v>0.2698221344017849</v>
       </c>
       <c r="G40">
-        <v>0.1212555919202254</v>
+        <v>0.133629439410142</v>
       </c>
       <c r="H40">
-        <v>0.07558617470828978</v>
-      </c>
-      <c r="I40">
-        <v>0.09771248492430117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.08471821295951028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.2460815972488641</v>
+        <v>0.2717461974751333</v>
       </c>
       <c r="C41">
-        <v>0.1180887898803205</v>
+        <v>0.1374462431895048</v>
       </c>
       <c r="D41">
-        <v>0.04846321008807113</v>
+        <v>0.05732443587851491</v>
       </c>
       <c r="E41">
-        <v>0.05829354941940043</v>
+        <v>0.06526086541082529</v>
       </c>
       <c r="F41">
-        <v>0.07790475675267844</v>
+        <v>0.09008231750073853</v>
       </c>
       <c r="G41">
-        <v>0.1488668683467867</v>
+        <v>0.1758356312909007</v>
       </c>
       <c r="H41">
-        <v>0.1734211515065051</v>
-      </c>
-      <c r="I41">
-        <v>0.1288800767573736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.2023043092543826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1481350810200519</v>
+        <v>0.1557275392777653</v>
       </c>
       <c r="C42">
-        <v>0.1288902275715546</v>
+        <v>0.1352868331376243</v>
       </c>
       <c r="D42">
-        <v>0.09938639957945571</v>
+        <v>0.116751455503554</v>
       </c>
       <c r="E42">
-        <v>0.09871571985396374</v>
+        <v>0.1120920092429791</v>
       </c>
       <c r="F42">
-        <v>0.1920767071588933</v>
+        <v>0.2142149906958876</v>
       </c>
       <c r="G42">
-        <v>0.1409741366255542</v>
+        <v>0.1517418550765974</v>
       </c>
       <c r="H42">
-        <v>0.1056688939805724</v>
-      </c>
-      <c r="I42">
-        <v>0.08615283420995418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1141853170655924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.08790431896439031</v>
+        <v>0.0948801740250743</v>
       </c>
       <c r="C43">
-        <v>0.1125859882946935</v>
+        <v>0.12561960733738</v>
       </c>
       <c r="D43">
-        <v>0.1015708023320419</v>
+        <v>0.1114374555138783</v>
       </c>
       <c r="E43">
-        <v>0.1154316921083382</v>
+        <v>0.1304324037931381</v>
       </c>
       <c r="F43">
-        <v>0.2132001956258094</v>
+        <v>0.2421493354656988</v>
       </c>
       <c r="G43">
-        <v>0.1853157081632108</v>
+        <v>0.2077455095129969</v>
       </c>
       <c r="H43">
-        <v>0.07928724489598449</v>
-      </c>
-      <c r="I43">
-        <v>0.1047040496155314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.08773551435183345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1313217359055688</v>
+        <v>0.146872652341601</v>
       </c>
       <c r="C44">
-        <v>0.1286489312495717</v>
+        <v>0.1356429654335925</v>
       </c>
       <c r="D44">
-        <v>0.1216772138953685</v>
+        <v>0.1350545501213077</v>
       </c>
       <c r="E44">
-        <v>0.1127725045151275</v>
+        <v>0.1246538842094759</v>
       </c>
       <c r="F44">
-        <v>0.1785312789442479</v>
+        <v>0.1917647211030873</v>
       </c>
       <c r="G44">
-        <v>0.1394603408691816</v>
+        <v>0.1515304424833335</v>
       </c>
       <c r="H44">
-        <v>0.105440948687602</v>
-      </c>
-      <c r="I44">
-        <v>0.0821470459333319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1144807843076019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1129875544497063</v>
+        <v>0.1245252882890186</v>
       </c>
       <c r="C45">
-        <v>0.1271568195794115</v>
+        <v>0.1346179034030334</v>
       </c>
       <c r="D45">
-        <v>0.1051039217895443</v>
+        <v>0.1107523517664395</v>
       </c>
       <c r="E45">
-        <v>0.09946349018423675</v>
+        <v>0.1060372940026858</v>
       </c>
       <c r="F45">
-        <v>0.2260486987876332</v>
+        <v>0.256048445694829</v>
       </c>
       <c r="G45">
-        <v>0.1607285439467459</v>
+        <v>0.1705967185536205</v>
       </c>
       <c r="H45">
-        <v>0.08821330639966964</v>
-      </c>
-      <c r="I45">
-        <v>0.08029766486305229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.09742199829037308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1422602167138547</v>
+        <v>0.1682981450715038</v>
       </c>
       <c r="C46">
-        <v>0.1335057515368376</v>
+        <v>0.1533193930012656</v>
       </c>
       <c r="D46">
-        <v>0.1140548361193388</v>
+        <v>0.1290505898898589</v>
       </c>
       <c r="E46">
-        <v>0.1174151319942898</v>
+        <v>0.1358032805323803</v>
       </c>
       <c r="F46">
-        <v>0.098909736630028</v>
+        <v>0.1132054149971599</v>
       </c>
       <c r="G46">
-        <v>0.1317992568245628</v>
+        <v>0.1515737851911678</v>
       </c>
       <c r="H46">
-        <v>0.1276685694609687</v>
-      </c>
-      <c r="I46">
-        <v>0.1343865007201197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1487493913166636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.08115711803555359</v>
+        <v>0.08293265752095659</v>
       </c>
       <c r="C47">
-        <v>0.1234107165601777</v>
+        <v>0.1312316130070299</v>
       </c>
       <c r="D47">
-        <v>0.08777769297845389</v>
+        <v>0.09550189492046676</v>
       </c>
       <c r="E47">
-        <v>0.09140685508890158</v>
+        <v>0.09647017825009645</v>
       </c>
       <c r="F47">
-        <v>0.2331253142285057</v>
+        <v>0.2489816886182294</v>
       </c>
       <c r="G47">
-        <v>0.1970896545762028</v>
+        <v>0.2214582880900945</v>
       </c>
       <c r="H47">
-        <v>0.1120353831684324</v>
-      </c>
-      <c r="I47">
-        <v>0.07399726536377248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1234236795931262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.08436747448001473</v>
+        <v>0.08027289473754606</v>
       </c>
       <c r="C48">
-        <v>0.5816190449818581</v>
+        <v>0.6445426496669788</v>
       </c>
       <c r="D48">
-        <v>0.008601413479651624</v>
+        <v>0.008744446818007238</v>
       </c>
       <c r="E48">
-        <v>0.0168748064291156</v>
+        <v>0.01706113361639483</v>
       </c>
       <c r="F48">
-        <v>0.006384808550274796</v>
+        <v>0.006074909752003551</v>
       </c>
       <c r="G48">
-        <v>0.01820869218527586</v>
+        <v>0.01878529723494068</v>
       </c>
       <c r="H48">
-        <v>0.2483897452334575</v>
-      </c>
-      <c r="I48">
-        <v>0.03555401466035187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.2245186681741288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.06982794003765982</v>
+        <v>0.07088501869636091</v>
       </c>
       <c r="C49">
-        <v>0.1468052722116075</v>
+        <v>0.1579833577657253</v>
       </c>
       <c r="D49">
-        <v>0.09457287518916668</v>
+        <v>0.09210271105854932</v>
       </c>
       <c r="E49">
-        <v>0.08515742984915148</v>
+        <v>0.0840049816126783</v>
       </c>
       <c r="F49">
-        <v>0.2293624948052223</v>
+        <v>0.2644697975472387</v>
       </c>
       <c r="G49">
-        <v>0.1813542902140624</v>
+        <v>0.2035569230072759</v>
       </c>
       <c r="H49">
-        <v>0.1144096651058952</v>
-      </c>
-      <c r="I49">
-        <v>0.0785100325872346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1269972103121714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.2790000403650352</v>
+        <v>0.327266012800024</v>
       </c>
       <c r="C50">
-        <v>0.1378092316063351</v>
+        <v>0.1477127210698022</v>
       </c>
       <c r="D50">
-        <v>0.1255844170230636</v>
+        <v>0.1204258938066606</v>
       </c>
       <c r="E50">
-        <v>0.07323380437056907</v>
+        <v>0.07941262532752529</v>
       </c>
       <c r="F50">
-        <v>0.1276465134504647</v>
+        <v>0.1289955152206534</v>
       </c>
       <c r="G50">
-        <v>0.09733031137843788</v>
+        <v>0.09270138808320962</v>
       </c>
       <c r="H50">
-        <v>0.103030230567492</v>
-      </c>
-      <c r="I50">
-        <v>0.05636545123860251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1034858436921248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1018881482033091</v>
+        <v>0.1053920123942514</v>
       </c>
       <c r="C51">
-        <v>0.1214407431262505</v>
+        <v>0.1366393463759191</v>
       </c>
       <c r="D51">
-        <v>0.09086834208224934</v>
+        <v>0.1010274690028096</v>
       </c>
       <c r="E51">
-        <v>0.1111047996206349</v>
+        <v>0.1222562782202115</v>
       </c>
       <c r="F51">
-        <v>0.2364836008167506</v>
+        <v>0.2555937787765928</v>
       </c>
       <c r="G51">
-        <v>0.1552565202349292</v>
+        <v>0.172826794731896</v>
       </c>
       <c r="H51">
-        <v>0.09949204820975727</v>
-      </c>
-      <c r="I51">
-        <v>0.08346579770611916</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1062643204983197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1169351828305464</v>
+        <v>0.1229542286337391</v>
       </c>
       <c r="C52">
-        <v>0.1108797634321916</v>
+        <v>0.1238299200330437</v>
       </c>
       <c r="D52">
-        <v>0.09823766747747527</v>
+        <v>0.1083928559071589</v>
       </c>
       <c r="E52">
-        <v>0.1168680902179826</v>
+        <v>0.1308366926652119</v>
       </c>
       <c r="F52">
-        <v>0.1437228066263787</v>
+        <v>0.164578565751287</v>
       </c>
       <c r="G52">
-        <v>0.2194879888058898</v>
+        <v>0.2540939987858781</v>
       </c>
       <c r="H52">
-        <v>0.08552476146290752</v>
-      </c>
-      <c r="I52">
-        <v>0.1083437391466281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.09531373822368132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.07099360652916385</v>
+        <v>0.07340732815965097</v>
       </c>
       <c r="C53">
-        <v>0.1193048064929178</v>
+        <v>0.1214360948656974</v>
       </c>
       <c r="D53">
-        <v>0.1257915193568235</v>
+        <v>0.1410838458539153</v>
       </c>
       <c r="E53">
-        <v>0.1135627026929373</v>
+        <v>0.1292266037572948</v>
       </c>
       <c r="F53">
-        <v>0.2306314007987907</v>
+        <v>0.2563991755641327</v>
       </c>
       <c r="G53">
-        <v>0.1631075404330089</v>
+        <v>0.1834624403586629</v>
       </c>
       <c r="H53">
-        <v>0.09306844263073974</v>
-      </c>
-      <c r="I53">
-        <v>0.08353998106561836</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.09498451144064596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.05074267685017353</v>
+        <v>0.05502481202047418</v>
       </c>
       <c r="C54">
-        <v>0.1061723584242329</v>
+        <v>0.1158231261034925</v>
       </c>
       <c r="D54">
-        <v>0.1198244592045571</v>
+        <v>0.1318738471883229</v>
       </c>
       <c r="E54">
-        <v>0.1113089796109747</v>
+        <v>0.1275648333767306</v>
       </c>
       <c r="F54">
-        <v>0.2623273945550836</v>
+        <v>0.291759870516174</v>
       </c>
       <c r="G54">
-        <v>0.1684952509121627</v>
+        <v>0.1892733173374257</v>
       </c>
       <c r="H54">
-        <v>0.08841217562033563</v>
-      </c>
-      <c r="I54">
-        <v>0.09271670482247973</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.08868019345738011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.09548901538152028</v>
+        <v>0.10451857213012</v>
       </c>
       <c r="C55">
-        <v>0.113025364141103</v>
+        <v>0.1247316760294449</v>
       </c>
       <c r="D55">
-        <v>0.1006394434219612</v>
+        <v>0.1143110860527184</v>
       </c>
       <c r="E55">
-        <v>0.1051539371438171</v>
+        <v>0.1131511102262339</v>
       </c>
       <c r="F55">
-        <v>0.193636742529325</v>
+        <v>0.2156399442005652</v>
       </c>
       <c r="G55">
-        <v>0.1829899913349939</v>
+        <v>0.2043774509521542</v>
       </c>
       <c r="H55">
-        <v>0.1077179850170503</v>
-      </c>
-      <c r="I55">
-        <v>0.1013475210302292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1232701604087634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1235141382914139</v>
+        <v>0.1307520230937051</v>
       </c>
       <c r="C56">
-        <v>0.1771536305665653</v>
+        <v>0.1906266873419737</v>
       </c>
       <c r="D56">
-        <v>0.04744536922222038</v>
+        <v>0.04571173994583554</v>
       </c>
       <c r="E56">
-        <v>0.04251035546871233</v>
+        <v>0.04108432946898106</v>
       </c>
       <c r="F56">
-        <v>0.08369217252225311</v>
+        <v>0.08677708897323795</v>
       </c>
       <c r="G56">
-        <v>0.1917763595442404</v>
+        <v>0.2282407871633906</v>
       </c>
       <c r="H56">
-        <v>0.2396415989737652</v>
-      </c>
-      <c r="I56">
-        <v>0.09426637541082929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.2768073440128761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.09646917051871809</v>
+        <v>0.1066297495428647</v>
       </c>
       <c r="C57">
-        <v>0.1291097901198116</v>
+        <v>0.137077649036442</v>
       </c>
       <c r="D57">
-        <v>0.1078965716844221</v>
+        <v>0.1123351710637813</v>
       </c>
       <c r="E57">
-        <v>0.1116725151165477</v>
+        <v>0.1206714740498507</v>
       </c>
       <c r="F57">
-        <v>0.2184425018192259</v>
+        <v>0.2435723988801776</v>
       </c>
       <c r="G57">
-        <v>0.155977155475569</v>
+        <v>0.173679550920233</v>
       </c>
       <c r="H57">
-        <v>0.09836998914917885</v>
-      </c>
-      <c r="I57">
-        <v>0.08206230611652687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1060340065066507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4292454139025302</v>
+        <v>0.4541035175069844</v>
       </c>
       <c r="C58">
-        <v>0.082121552361429</v>
+        <v>0.0807604670878455</v>
       </c>
       <c r="D58">
-        <v>0.01480472481537487</v>
+        <v>0.01455930589699754</v>
       </c>
       <c r="E58">
-        <v>0.02407157367374292</v>
+        <v>0.02325201241966625</v>
       </c>
       <c r="F58">
-        <v>0.01934015993565091</v>
+        <v>0.01910078275827082</v>
       </c>
       <c r="G58">
-        <v>0.0300997165767414</v>
+        <v>0.03081156610945381</v>
       </c>
       <c r="H58">
-        <v>0.3507971930450331</v>
-      </c>
-      <c r="I58">
-        <v>0.04951966568949755</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.3774123482207816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1181207694502123</v>
+        <v>0.1420745461463594</v>
       </c>
       <c r="C59">
-        <v>0.09376045232424812</v>
+        <v>0.1130737257185559</v>
       </c>
       <c r="D59">
-        <v>0.1967256844243914</v>
+        <v>0.2181177034692868</v>
       </c>
       <c r="E59">
-        <v>0.132097380734464</v>
+        <v>0.1453068164796472</v>
       </c>
       <c r="F59">
-        <v>0.08097060301999803</v>
+        <v>0.08944637753260798</v>
       </c>
       <c r="G59">
-        <v>0.1395810364611647</v>
+        <v>0.1580485639857323</v>
       </c>
       <c r="H59">
-        <v>0.1207614411032471</v>
-      </c>
-      <c r="I59">
-        <v>0.1179826324822743</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1339322666678105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1095314091727845</v>
+        <v>0.1239988263961055</v>
       </c>
       <c r="C60">
-        <v>0.1141191544859389</v>
+        <v>0.1303877513024172</v>
       </c>
       <c r="D60">
-        <v>0.1325420520384104</v>
+        <v>0.1518985271553607</v>
       </c>
       <c r="E60">
-        <v>0.1328762040504878</v>
+        <v>0.1531153016256612</v>
       </c>
       <c r="F60">
-        <v>0.1049604763532905</v>
+        <v>0.1282865901732234</v>
       </c>
       <c r="G60">
-        <v>0.1644841010744879</v>
+        <v>0.1826758268244203</v>
       </c>
       <c r="H60">
-        <v>0.1131593771291546</v>
-      </c>
-      <c r="I60">
-        <v>0.1283272256954455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1296371765228117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.09606182763283544</v>
+        <v>0.1043773415754599</v>
       </c>
       <c r="C61">
-        <v>0.1217112495617983</v>
+        <v>0.135792805434289</v>
       </c>
       <c r="D61">
-        <v>0.1145935102087755</v>
+        <v>0.1226393890922962</v>
       </c>
       <c r="E61">
-        <v>0.1234267015672988</v>
+        <v>0.1368095767512645</v>
       </c>
       <c r="F61">
-        <v>0.1730598554264571</v>
+        <v>0.1977348458475011</v>
       </c>
       <c r="G61">
-        <v>0.1769949064841398</v>
+        <v>0.1956272679299078</v>
       </c>
       <c r="H61">
-        <v>0.09706656715172443</v>
-      </c>
-      <c r="I61">
-        <v>0.09708538196697078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1070187733692814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1050498729124228</v>
+        <v>0.1202490261323996</v>
       </c>
       <c r="C62">
-        <v>0.1023058734587339</v>
+        <v>0.11816323971978</v>
       </c>
       <c r="D62">
-        <v>0.1456759477995639</v>
+        <v>0.169375170131743</v>
       </c>
       <c r="E62">
-        <v>0.1394137148770178</v>
+        <v>0.1611375741288176</v>
       </c>
       <c r="F62">
-        <v>0.09050516287061629</v>
+        <v>0.1068763018186903</v>
       </c>
       <c r="G62">
-        <v>0.1640740771613421</v>
+        <v>0.1839528273134996</v>
       </c>
       <c r="H62">
-        <v>0.1247691995860064</v>
-      </c>
-      <c r="I62">
-        <v>0.1282061513342969</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1402458607550697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1091403003076516</v>
+        <v>0.1216397022338236</v>
       </c>
       <c r="C63">
-        <v>0.1099545917123392</v>
+        <v>0.1243037171518231</v>
       </c>
       <c r="D63">
-        <v>0.1344425500889088</v>
+        <v>0.1549859770606622</v>
       </c>
       <c r="E63">
-        <v>0.1348432843221967</v>
+        <v>0.1555910149806781</v>
       </c>
       <c r="F63">
-        <v>0.1110003419582175</v>
+        <v>0.1307205766000419</v>
       </c>
       <c r="G63">
-        <v>0.1669150875328295</v>
+        <v>0.190012218378049</v>
       </c>
       <c r="H63">
-        <v>0.1074281205764628</v>
-      </c>
-      <c r="I63">
-        <v>0.126275723501394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1227467935949222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1017266288500997</v>
+        <v>0.1244497818933837</v>
       </c>
       <c r="C64">
-        <v>0.1538399132563458</v>
+        <v>0.1630491856896913</v>
       </c>
       <c r="D64">
-        <v>0.1612347529210743</v>
+        <v>0.1597262928795435</v>
       </c>
       <c r="E64">
-        <v>0.1332397307061287</v>
+        <v>0.1524319061108552</v>
       </c>
       <c r="F64">
-        <v>0.1562288555232114</v>
+        <v>0.1793732960715846</v>
       </c>
       <c r="G64">
-        <v>0.1130850375937821</v>
+        <v>0.1151541023065116</v>
       </c>
       <c r="H64">
-        <v>0.09729935858129417</v>
-      </c>
-      <c r="I64">
-        <v>0.08334572256806369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1058154350484302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2691522387768727</v>
+        <v>0.3190852507150803</v>
       </c>
       <c r="C65">
-        <v>0.09061631445565899</v>
+        <v>0.09561460762622762</v>
       </c>
       <c r="D65">
-        <v>0.04386290589376635</v>
+        <v>0.05411171126969729</v>
       </c>
       <c r="E65">
-        <v>0.05733090086551459</v>
+        <v>0.07217481708782093</v>
       </c>
       <c r="F65">
-        <v>0.05015841359379262</v>
+        <v>0.06119264851846416</v>
       </c>
       <c r="G65">
-        <v>0.1154461805382398</v>
+        <v>0.1369378156913908</v>
       </c>
       <c r="H65">
-        <v>0.217887689483566</v>
-      </c>
-      <c r="I65">
-        <v>0.1555453563925889</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.2608831490913189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.2955305468068574</v>
+        <v>0.3724477472713068</v>
       </c>
       <c r="C66">
-        <v>0.1073121389012608</v>
+        <v>0.1301449531148368</v>
       </c>
       <c r="D66">
-        <v>0.05928698948874061</v>
+        <v>0.07669188591183092</v>
       </c>
       <c r="E66">
-        <v>0.0452115784933933</v>
+        <v>0.05646433093362536</v>
       </c>
       <c r="F66">
-        <v>0.05659071870032791</v>
+        <v>0.06594988775473849</v>
       </c>
       <c r="G66">
-        <v>0.08492647982031769</v>
+        <v>0.09228987625304259</v>
       </c>
       <c r="H66">
-        <v>0.1717866986570777</v>
-      </c>
-      <c r="I66">
-        <v>0.1793548491320245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.2060113187606191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1584117787802482</v>
+        <v>0.1687527043093872</v>
       </c>
       <c r="C67">
-        <v>0.1811006394032405</v>
+        <v>0.2147716759635005</v>
       </c>
       <c r="D67">
-        <v>0.04953091871339953</v>
+        <v>0.06503454854529218</v>
       </c>
       <c r="E67">
-        <v>0.05647637237361635</v>
+        <v>0.06891107416412962</v>
       </c>
       <c r="F67">
-        <v>0.09783643898202651</v>
+        <v>0.1157766705477717</v>
       </c>
       <c r="G67">
-        <v>0.202049137454901</v>
+        <v>0.2407223496974881</v>
       </c>
       <c r="H67">
-        <v>0.111068100056042</v>
-      </c>
-      <c r="I67">
-        <v>0.1435266142365258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1260309767724307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1086524446220129</v>
+        <v>0.1222671126647517</v>
       </c>
       <c r="C68">
-        <v>0.118150211956521</v>
+        <v>0.1338355096322509</v>
       </c>
       <c r="D68">
-        <v>0.118130012938986</v>
+        <v>0.13440950155743</v>
       </c>
       <c r="E68">
-        <v>0.1344951987664105</v>
+        <v>0.1556569735069564</v>
       </c>
       <c r="F68">
-        <v>0.1071444952327505</v>
+        <v>0.126562568948004</v>
       </c>
       <c r="G68">
-        <v>0.1677863416620654</v>
+        <v>0.1901308975276918</v>
       </c>
       <c r="H68">
-        <v>0.1195512108792068</v>
-      </c>
-      <c r="I68">
-        <v>0.1260900839420469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1371374361629152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.200688359361102</v>
+        <v>0.2283744096071003</v>
       </c>
       <c r="C69">
-        <v>0.1329999279978973</v>
+        <v>0.1521401243242028</v>
       </c>
       <c r="D69">
-        <v>0.0893909533973368</v>
+        <v>0.1156393484833231</v>
       </c>
       <c r="E69">
-        <v>0.08676832280313461</v>
+        <v>0.1115795100811534</v>
       </c>
       <c r="F69">
-        <v>0.1021939139236162</v>
+        <v>0.1188566448104415</v>
       </c>
       <c r="G69">
-        <v>0.09000420828645209</v>
+        <v>0.09295781717121766</v>
       </c>
       <c r="H69">
-        <v>0.1522359541157765</v>
-      </c>
-      <c r="I69">
-        <v>0.1457183601146846</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1804521455225612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.3106012210022783</v>
+        <v>0.3211421814811677</v>
       </c>
       <c r="C70">
-        <v>0.1062164613221117</v>
+        <v>0.118827644101392</v>
       </c>
       <c r="D70">
-        <v>0.05519057476663811</v>
+        <v>0.06128431328069663</v>
       </c>
       <c r="E70">
-        <v>0.06355826884683564</v>
+        <v>0.06915552780221451</v>
       </c>
       <c r="F70">
-        <v>0.09484469411546406</v>
+        <v>0.1041331072428168</v>
       </c>
       <c r="G70">
-        <v>0.1160327931781392</v>
+        <v>0.1300471208819668</v>
       </c>
       <c r="H70">
-        <v>0.1636501883687291</v>
-      </c>
-      <c r="I70">
-        <v>0.0899057983998037</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1954101052097455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.137119778927865</v>
+        <v>0.1561701348290744</v>
       </c>
       <c r="C71">
-        <v>0.1233346747289911</v>
+        <v>0.13954771672931</v>
       </c>
       <c r="D71">
-        <v>0.1038851935665684</v>
+        <v>0.1150700027573537</v>
       </c>
       <c r="E71">
-        <v>0.1262503436905114</v>
+        <v>0.1425691427557343</v>
       </c>
       <c r="F71">
-        <v>0.1178773588458825</v>
+        <v>0.1348936199724975</v>
       </c>
       <c r="G71">
-        <v>0.1294333564775085</v>
+        <v>0.1520205779398371</v>
       </c>
       <c r="H71">
-        <v>0.1358639890564569</v>
-      </c>
-      <c r="I71">
-        <v>0.1262353047062163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1597288050161932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.2127208095747976</v>
+        <v>0.2610167584313381</v>
       </c>
       <c r="C72">
-        <v>0.1846238739822841</v>
+        <v>0.2164126912947505</v>
       </c>
       <c r="D72">
-        <v>0.04286254688915029</v>
+        <v>0.05120735268093273</v>
       </c>
       <c r="E72">
-        <v>0.04998784211895198</v>
+        <v>0.05823063229980512</v>
       </c>
       <c r="F72">
-        <v>0.05435573205457173</v>
+        <v>0.06521743870209924</v>
       </c>
       <c r="G72">
-        <v>0.09060897325181748</v>
+        <v>0.110893291169482</v>
       </c>
       <c r="H72">
-        <v>0.1991293406523565</v>
-      </c>
-      <c r="I72">
-        <v>0.1657108814760702</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.2370218354215924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1259691273821244</v>
+        <v>0.146720411274102</v>
       </c>
       <c r="C73">
-        <v>0.1001050609833037</v>
+        <v>0.1063160599842629</v>
       </c>
       <c r="D73">
-        <v>0.08499332334500508</v>
+        <v>0.0949956573475637</v>
       </c>
       <c r="E73">
-        <v>0.0792612821990356</v>
+        <v>0.08897974857998671</v>
       </c>
       <c r="F73">
-        <v>0.2622585962228598</v>
+        <v>0.2944809989300928</v>
       </c>
       <c r="G73">
-        <v>0.1745216950419521</v>
+        <v>0.1900490244385643</v>
       </c>
       <c r="H73">
-        <v>0.07106106906940989</v>
-      </c>
-      <c r="I73">
-        <v>0.1018298457563095</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.07845809944542767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.2269274966851017</v>
+        <v>0.2594248460182963</v>
       </c>
       <c r="C74">
-        <v>0.1000240221546977</v>
+        <v>0.1104776943100127</v>
       </c>
       <c r="D74">
-        <v>0.05367152088388034</v>
+        <v>0.05963874797658462</v>
       </c>
       <c r="E74">
-        <v>0.06187045124529299</v>
+        <v>0.06780672322130295</v>
       </c>
       <c r="F74">
-        <v>0.07565010615146567</v>
+        <v>0.08486076092949493</v>
       </c>
       <c r="G74">
-        <v>0.1226392240408708</v>
+        <v>0.1391698114522575</v>
       </c>
       <c r="H74">
-        <v>0.2505108939128103</v>
-      </c>
-      <c r="I74">
-        <v>0.1087062849258804</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.2786214160920512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1121341421978114</v>
+        <v>0.1216474413646074</v>
       </c>
       <c r="C75">
-        <v>0.1179195837435544</v>
+        <v>0.1297272232146846</v>
       </c>
       <c r="D75">
-        <v>0.09801019164108242</v>
+        <v>0.1102158045296063</v>
       </c>
       <c r="E75">
-        <v>0.1281955741619273</v>
+        <v>0.1444746175076739</v>
       </c>
       <c r="F75">
-        <v>0.1448610698752842</v>
+        <v>0.1664279152589113</v>
       </c>
       <c r="G75">
-        <v>0.1771413759559526</v>
+        <v>0.2028270021713989</v>
       </c>
       <c r="H75">
-        <v>0.1088549484604829</v>
-      </c>
-      <c r="I75">
-        <v>0.1128831139639048</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1246799959531176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1355103895769567</v>
+        <v>0.1769751579851347</v>
       </c>
       <c r="C76">
-        <v>0.1108353861875882</v>
+        <v>0.1126994652210344</v>
       </c>
       <c r="D76">
-        <v>0.180166328737124</v>
+        <v>0.2158577185429343</v>
       </c>
       <c r="E76">
-        <v>0.1288276818465337</v>
+        <v>0.1431898620485869</v>
       </c>
       <c r="F76">
-        <v>0.1055460374378361</v>
+        <v>0.1242830263346922</v>
       </c>
       <c r="G76">
-        <v>0.06295937075420369</v>
+        <v>0.07289843242869168</v>
       </c>
       <c r="H76">
-        <v>0.1258140912282847</v>
-      </c>
-      <c r="I76">
-        <v>0.150340714231473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1540963374389258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.09777910504552459</v>
+        <v>0.1057026440732479</v>
       </c>
       <c r="C77">
-        <v>0.1157278501665193</v>
+        <v>0.130065459904311</v>
       </c>
       <c r="D77">
-        <v>0.1015097904818424</v>
+        <v>0.1128562653820509</v>
       </c>
       <c r="E77">
-        <v>0.1140329918067879</v>
+        <v>0.1271866599881384</v>
       </c>
       <c r="F77">
-        <v>0.1997156192970728</v>
+        <v>0.2220918298394199</v>
       </c>
       <c r="G77">
-        <v>0.18310546523489</v>
+        <v>0.2010208483732935</v>
       </c>
       <c r="H77">
-        <v>0.08893126706469028</v>
-      </c>
-      <c r="I77">
-        <v>0.09919791090267283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1010762924395384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.102480362885732</v>
+        <v>0.1128146118092342</v>
       </c>
       <c r="C78">
-        <v>0.11173098680583</v>
+        <v>0.1212687655403962</v>
       </c>
       <c r="D78">
-        <v>0.08364261938821221</v>
+        <v>0.09421398544655896</v>
       </c>
       <c r="E78">
-        <v>0.1024894481567616</v>
+        <v>0.1156558311059142</v>
       </c>
       <c r="F78">
-        <v>0.1524998845901882</v>
+        <v>0.1624441237224877</v>
       </c>
       <c r="G78">
-        <v>0.25536866507866</v>
+        <v>0.2959067254840524</v>
       </c>
       <c r="H78">
-        <v>0.09142656754865941</v>
-      </c>
-      <c r="I78">
-        <v>0.1003614655459566</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.09769595689135632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.06197883136777562</v>
+        <v>0.06921571198113123</v>
       </c>
       <c r="C79">
-        <v>0.1243850179282408</v>
+        <v>0.1291843650850622</v>
       </c>
       <c r="D79">
-        <v>0.1138241012019926</v>
+        <v>0.1221461785626657</v>
       </c>
       <c r="E79">
-        <v>0.1128428599320742</v>
+        <v>0.1221803019083568</v>
       </c>
       <c r="F79">
-        <v>0.234019807353692</v>
+        <v>0.2539683444623773</v>
       </c>
       <c r="G79">
-        <v>0.1738587204699188</v>
+        <v>0.1945214884656546</v>
       </c>
       <c r="H79">
-        <v>0.1047978820170817</v>
-      </c>
-      <c r="I79">
-        <v>0.07429277972922409</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.108783609534752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1229492022716836</v>
+        <v>0.1084952806185148</v>
       </c>
       <c r="C80">
-        <v>0.144515575730042</v>
+        <v>0.1523260395976422</v>
       </c>
       <c r="D80">
-        <v>0.1291825059409281</v>
+        <v>0.1343449479529826</v>
       </c>
       <c r="E80">
-        <v>0.1175436825051008</v>
+        <v>0.1278686107832843</v>
       </c>
       <c r="F80">
-        <v>0.1636414393905405</v>
+        <v>0.192679100178947</v>
       </c>
       <c r="G80">
-        <v>0.1521209184402704</v>
+        <v>0.1797122169826927</v>
       </c>
       <c r="H80">
-        <v>0.09012592026865601</v>
-      </c>
-      <c r="I80">
-        <v>0.0799207554527786</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1045738038859364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1367894348761638</v>
+        <v>0.138087060661877</v>
       </c>
       <c r="C81">
-        <v>0.1261484452897303</v>
+        <v>0.1358903577003094</v>
       </c>
       <c r="D81">
-        <v>0.1030878675022221</v>
+        <v>0.1131978524768996</v>
       </c>
       <c r="E81">
-        <v>0.1053195644779913</v>
+        <v>0.1309758623091544</v>
       </c>
       <c r="F81">
-        <v>0.1856845625945709</v>
+        <v>0.2051277731120713</v>
       </c>
       <c r="G81">
-        <v>0.1516973307521485</v>
+        <v>0.1674119655512844</v>
       </c>
       <c r="H81">
-        <v>0.0961831199385962</v>
-      </c>
-      <c r="I81">
-        <v>0.09508967456857684</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.109309128188404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.07384390873574059</v>
+        <v>0.08509101436780729</v>
       </c>
       <c r="C82">
-        <v>0.14232509760595</v>
+        <v>0.1540026720246931</v>
       </c>
       <c r="D82">
-        <v>0.1467850164952824</v>
+        <v>0.1523288822580142</v>
       </c>
       <c r="E82">
-        <v>0.1132520894192546</v>
+        <v>0.1263893367679236</v>
       </c>
       <c r="F82">
-        <v>0.1936576827343151</v>
+        <v>0.2120806801349612</v>
       </c>
       <c r="G82">
-        <v>0.1421116048408524</v>
+        <v>0.1570306867391829</v>
       </c>
       <c r="H82">
-        <v>0.1046330801136624</v>
-      </c>
-      <c r="I82">
-        <v>0.08339152005494234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1130767277074178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.07654287126587835</v>
+        <v>0.09127020075048398</v>
       </c>
       <c r="C83">
-        <v>0.1263214420596545</v>
+        <v>0.1449965819185646</v>
       </c>
       <c r="D83">
-        <v>0.1046593686059529</v>
+        <v>0.1180717807472093</v>
       </c>
       <c r="E83">
-        <v>0.1172498383550875</v>
+        <v>0.1301840686098488</v>
       </c>
       <c r="F83">
-        <v>0.2044289268004455</v>
+        <v>0.2227483265902973</v>
       </c>
       <c r="G83">
-        <v>0.1572063385932525</v>
+        <v>0.176786380243257</v>
       </c>
       <c r="H83">
-        <v>0.108206646872736</v>
-      </c>
-      <c r="I83">
-        <v>0.1053845674469927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1159426611403391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.144787555650563</v>
+        <v>0.171045927867869</v>
       </c>
       <c r="C84">
-        <v>0.1297468863724696</v>
+        <v>0.1651634821300769</v>
       </c>
       <c r="D84">
-        <v>0.05756770887600103</v>
+        <v>0.07324593816977393</v>
       </c>
       <c r="E84">
-        <v>0.05098807409085097</v>
+        <v>0.06606030696770049</v>
       </c>
       <c r="F84">
-        <v>0.04354956465624386</v>
+        <v>0.05633297393465227</v>
       </c>
       <c r="G84">
-        <v>0.09444628863488118</v>
+        <v>0.112842264668534</v>
       </c>
       <c r="H84">
-        <v>0.2907618174801648</v>
-      </c>
-      <c r="I84">
-        <v>0.1881521042388256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.3553091062613933</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1241223941979523</v>
+        <v>0.1409343715916573</v>
       </c>
       <c r="C85">
-        <v>0.1405580284500157</v>
+        <v>0.1470405345914081</v>
       </c>
       <c r="D85">
-        <v>0.1301380407963884</v>
+        <v>0.1418478635750239</v>
       </c>
       <c r="E85">
-        <v>0.1173453067265874</v>
+        <v>0.1330934570036777</v>
       </c>
       <c r="F85">
-        <v>0.1835218847814619</v>
+        <v>0.1947878128485025</v>
       </c>
       <c r="G85">
-        <v>0.12760424881549</v>
+        <v>0.1394985897632622</v>
       </c>
       <c r="H85">
-        <v>0.1014448589100335</v>
-      </c>
-      <c r="I85">
-        <v>0.07526523732207081</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1027973706264682</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.2200642082773243</v>
+        <v>0.2331761075836758</v>
       </c>
       <c r="C86">
-        <v>0.1132957819264284</v>
+        <v>0.1324267627399427</v>
       </c>
       <c r="D86">
-        <v>0.05209225154067686</v>
+        <v>0.053696784339362</v>
       </c>
       <c r="E86">
-        <v>0.04639213278055402</v>
+        <v>0.0482389137327277</v>
       </c>
       <c r="F86">
-        <v>0.07193768443760755</v>
+        <v>0.07790359801752912</v>
       </c>
       <c r="G86">
-        <v>0.1792847506789163</v>
+        <v>0.211316621980894</v>
       </c>
       <c r="H86">
-        <v>0.2129022277016092</v>
-      </c>
-      <c r="I86">
-        <v>0.1040309626568833</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.2432412116058688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1300991876820755</v>
+        <v>0.1543531718311641</v>
       </c>
       <c r="C87">
-        <v>0.1229154238158164</v>
+        <v>0.1418112837245087</v>
       </c>
       <c r="D87">
-        <v>0.1311315581237731</v>
+        <v>0.1514418310731067</v>
       </c>
       <c r="E87">
-        <v>0.1090093293391168</v>
+        <v>0.1274014361548149</v>
       </c>
       <c r="F87">
-        <v>0.1144520208062597</v>
+        <v>0.1283064960503628</v>
       </c>
       <c r="G87">
-        <v>0.1239721361374468</v>
+        <v>0.1411650226462408</v>
       </c>
       <c r="H87">
-        <v>0.1357176525894457</v>
-      </c>
-      <c r="I87">
-        <v>0.1327026915060661</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.155520758519802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.2404296863249974</v>
+        <v>0.2785440600425182</v>
       </c>
       <c r="C88">
-        <v>0.1630154230529807</v>
+        <v>0.1813220349589228</v>
       </c>
       <c r="D88">
-        <v>0.07046810266390305</v>
+        <v>0.07783406009749147</v>
       </c>
       <c r="E88">
-        <v>0.07463460037293822</v>
+        <v>0.07461793820428338</v>
       </c>
       <c r="F88">
-        <v>0.06423027882026655</v>
+        <v>0.07517536216311708</v>
       </c>
       <c r="G88">
-        <v>0.1048020065615452</v>
+        <v>0.1239981896359213</v>
       </c>
       <c r="H88">
-        <v>0.1630169107282701</v>
-      </c>
-      <c r="I88">
-        <v>0.1194029914750989</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1885083548977458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.09358480491061869</v>
+        <v>0.1068855439225938</v>
       </c>
       <c r="C89">
-        <v>0.1450460115841438</v>
+        <v>0.1577988725013551</v>
       </c>
       <c r="D89">
-        <v>0.1142016085427105</v>
+        <v>0.1295192493034372</v>
       </c>
       <c r="E89">
-        <v>0.1057225698720344</v>
+        <v>0.1184637236665332</v>
       </c>
       <c r="F89">
-        <v>0.1789851521824256</v>
+        <v>0.1972389372888261</v>
       </c>
       <c r="G89">
-        <v>0.1545052923716159</v>
+        <v>0.1737979127375683</v>
       </c>
       <c r="H89">
-        <v>0.11246664928913</v>
-      </c>
-      <c r="I89">
-        <v>0.09548791124732101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1162957605796861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.09615991448869564</v>
+        <v>0.1099229591087377</v>
       </c>
       <c r="C90">
-        <v>0.1465376450205715</v>
+        <v>0.1578832448466196</v>
       </c>
       <c r="D90">
-        <v>0.1398634853241198</v>
+        <v>0.1463718989433843</v>
       </c>
       <c r="E90">
-        <v>0.1063505018913149</v>
+        <v>0.1162061849005837</v>
       </c>
       <c r="F90">
-        <v>0.2223668428303195</v>
+        <v>0.2509870291630215</v>
       </c>
       <c r="G90">
-        <v>0.1154444913389184</v>
+        <v>0.1255995183298214</v>
       </c>
       <c r="H90">
-        <v>0.08133260763047437</v>
-      </c>
-      <c r="I90">
-        <v>0.09194451147558602</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.09302916470783186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.176076699868487</v>
+        <v>0.2017791950643379</v>
       </c>
       <c r="C91">
-        <v>0.1392567858451197</v>
+        <v>0.1577566839671422</v>
       </c>
       <c r="D91">
-        <v>0.04328328823336432</v>
+        <v>0.05373571696834271</v>
       </c>
       <c r="E91">
-        <v>0.0369249841765701</v>
+        <v>0.04659663277016963</v>
       </c>
       <c r="F91">
-        <v>0.07673265295117135</v>
+        <v>0.08946867833870564</v>
       </c>
       <c r="G91">
-        <v>0.1692563318821677</v>
+        <v>0.2012069741610345</v>
       </c>
       <c r="H91">
-        <v>0.2058520650845566</v>
-      </c>
-      <c r="I91">
-        <v>0.1526171919585633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.2494561187302675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1321080391374287</v>
+        <v>0.149448043299849</v>
       </c>
       <c r="C92">
-        <v>0.1258904679661471</v>
+        <v>0.1438771918462358</v>
       </c>
       <c r="D92">
-        <v>0.1041314310464603</v>
+        <v>0.1194572323808093</v>
       </c>
       <c r="E92">
-        <v>0.1128174153974337</v>
+        <v>0.1273394664425086</v>
       </c>
       <c r="F92">
-        <v>0.1093986144237226</v>
+        <v>0.1265202348165708</v>
       </c>
       <c r="G92">
-        <v>0.1463122976554526</v>
+        <v>0.1743355215716018</v>
       </c>
       <c r="H92">
-        <v>0.1401622229447201</v>
-      </c>
-      <c r="I92">
-        <v>0.1291795114286346</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1590223096424245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.08277531205068249</v>
+        <v>0.08966961816163194</v>
       </c>
       <c r="C93">
-        <v>0.1517120959788167</v>
+        <v>0.1640966073563099</v>
       </c>
       <c r="D93">
-        <v>0.1177531208705282</v>
+        <v>0.1160079179774568</v>
       </c>
       <c r="E93">
-        <v>0.105780156069665</v>
+        <v>0.112699527453852</v>
       </c>
       <c r="F93">
-        <v>0.2167458946279551</v>
+        <v>0.2412625212067351</v>
       </c>
       <c r="G93">
-        <v>0.1566685824725378</v>
+        <v>0.1693721864957573</v>
       </c>
       <c r="H93">
-        <v>0.1011553407989014</v>
-      </c>
-      <c r="I93">
-        <v>0.06740949713091336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.106891621348257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1200827533835469</v>
+        <v>0.1382868087737487</v>
       </c>
       <c r="C94">
-        <v>0.1273071474084448</v>
+        <v>0.1518340776193117</v>
       </c>
       <c r="D94">
-        <v>0.1134167267707072</v>
+        <v>0.1294648376739407</v>
       </c>
       <c r="E94">
-        <v>0.1187067859703721</v>
+        <v>0.1338804270424019</v>
       </c>
       <c r="F94">
-        <v>0.1015702614910135</v>
+        <v>0.1144862924000789</v>
       </c>
       <c r="G94">
-        <v>0.1550638831542949</v>
+        <v>0.1776736090963772</v>
       </c>
       <c r="H94">
-        <v>0.1276396541614637</v>
-      </c>
-      <c r="I94">
-        <v>0.136212787660157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1543739473941406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1938268006065606</v>
+        <v>0.2246339317737499</v>
       </c>
       <c r="C95">
-        <v>0.147767712114594</v>
+        <v>0.1687712987740644</v>
       </c>
       <c r="D95">
-        <v>0.06732898125256387</v>
+        <v>0.07948015485590998</v>
       </c>
       <c r="E95">
-        <v>0.05650842296709466</v>
+        <v>0.06646123724423009</v>
       </c>
       <c r="F95">
-        <v>0.06542736782309014</v>
+        <v>0.07743646199129801</v>
       </c>
       <c r="G95">
-        <v>0.1592928724267693</v>
+        <v>0.1906916174173462</v>
       </c>
       <c r="H95">
-        <v>0.161808621284805</v>
-      </c>
-      <c r="I95">
-        <v>0.1480392215245224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1925252979434015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1333854866611654</v>
+        <v>0.1470970370359121</v>
       </c>
       <c r="C96">
-        <v>0.1959355072394923</v>
+        <v>0.2177212440571601</v>
       </c>
       <c r="D96">
-        <v>0.05835802330603995</v>
+        <v>0.05996539767060028</v>
       </c>
       <c r="E96">
-        <v>0.04711205645236014</v>
+        <v>0.05044843262781929</v>
       </c>
       <c r="F96">
-        <v>0.08196064744833816</v>
+        <v>0.08688762441085494</v>
       </c>
       <c r="G96">
-        <v>0.1857885297502241</v>
+        <v>0.2112777432235201</v>
       </c>
       <c r="H96">
-        <v>0.1988749076443615</v>
-      </c>
-      <c r="I96">
-        <v>0.09858484149801834</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.2266025209741331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1118708290134163</v>
+        <v>0.1237097602583135</v>
       </c>
       <c r="C97">
-        <v>0.1110750084910485</v>
+        <v>0.1256487392562056</v>
       </c>
       <c r="D97">
-        <v>0.1434347074469698</v>
+        <v>0.1644014047619623</v>
       </c>
       <c r="E97">
-        <v>0.17138460425532</v>
+        <v>0.20471989051354</v>
       </c>
       <c r="F97">
-        <v>0.07113669527338873</v>
+        <v>0.07860184367125779</v>
       </c>
       <c r="G97">
-        <v>0.1411516414058318</v>
+        <v>0.1732346553682837</v>
       </c>
       <c r="H97">
-        <v>0.1203211046378505</v>
-      </c>
-      <c r="I97">
-        <v>0.1296254094761743</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.1296837061704372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1331697259740765</v>
+        <v>0.1517597154367939</v>
       </c>
       <c r="C98">
-        <v>0.1241000640622087</v>
+        <v>0.1415324329442544</v>
       </c>
       <c r="D98">
-        <v>0.1181443902978562</v>
+        <v>0.1376024111898932</v>
       </c>
       <c r="E98">
-        <v>0.1209051460530335</v>
+        <v>0.1382092927756664</v>
       </c>
       <c r="F98">
-        <v>0.1270848362499586</v>
+        <v>0.1436238258886915</v>
       </c>
       <c r="G98">
-        <v>0.1186613501757538</v>
+        <v>0.1383761809407529</v>
       </c>
       <c r="H98">
-        <v>0.131220034446836</v>
-      </c>
-      <c r="I98">
-        <v>0.1267144527402766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1488961408239478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1771766563878361</v>
+        <v>0.2111046666092281</v>
       </c>
       <c r="C99">
-        <v>0.1666977313480454</v>
+        <v>0.1883651427923272</v>
       </c>
       <c r="D99">
-        <v>0.04193296609599916</v>
+        <v>0.05028438488284432</v>
       </c>
       <c r="E99">
-        <v>0.03995115276597022</v>
+        <v>0.0466832937764825</v>
       </c>
       <c r="F99">
-        <v>0.08285678986706105</v>
+        <v>0.09687578835270828</v>
       </c>
       <c r="G99">
-        <v>0.1681457036010097</v>
+        <v>0.1984468329638825</v>
       </c>
       <c r="H99">
-        <v>0.183358835606889</v>
-      </c>
-      <c r="I99">
-        <v>0.1398801643271892</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.2082398906225271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1023246545493378</v>
+        <v>0.116668738938735</v>
       </c>
       <c r="C100">
-        <v>0.1434868145560548</v>
+        <v>0.1523042450781467</v>
       </c>
       <c r="D100">
-        <v>0.117142917637735</v>
+        <v>0.1208972674353333</v>
       </c>
       <c r="E100">
-        <v>0.1214829364937047</v>
+        <v>0.1297256275826524</v>
       </c>
       <c r="F100">
-        <v>0.1972756833184481</v>
+        <v>0.2190763662903215</v>
       </c>
       <c r="G100">
-        <v>0.1517232989547624</v>
+        <v>0.1635340892723027</v>
       </c>
       <c r="H100">
-        <v>0.09127341847270477</v>
-      </c>
-      <c r="I100">
-        <v>0.07529027601725241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.09779366540250831</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1145851795026951</v>
+        <v>0.1264993050365554</v>
       </c>
       <c r="C101">
-        <v>0.1268645434842178</v>
+        <v>0.1415173884003755</v>
       </c>
       <c r="D101">
-        <v>0.1032963625723728</v>
+        <v>0.1180848562050719</v>
       </c>
       <c r="E101">
-        <v>0.1561774799263453</v>
+        <v>0.1858945518320099</v>
       </c>
       <c r="F101">
-        <v>0.09107171542688057</v>
+        <v>0.1040586877130069</v>
       </c>
       <c r="G101">
-        <v>0.1692439022358568</v>
+        <v>0.1941753325579019</v>
       </c>
       <c r="H101">
-        <v>0.1081944245159576</v>
-      </c>
-      <c r="I101">
-        <v>0.130566392335674</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.1297698782550785</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1055041821753826</v>
+        <v>0.1209883128907299</v>
       </c>
       <c r="C102">
-        <v>0.1111943331827717</v>
+        <v>0.1267019268426094</v>
       </c>
       <c r="D102">
-        <v>0.1355228887905634</v>
+        <v>0.1561939922028538</v>
       </c>
       <c r="E102">
-        <v>0.1382953295335282</v>
+        <v>0.1602003566655696</v>
       </c>
       <c r="F102">
-        <v>0.1038825494135798</v>
+        <v>0.1263816554509656</v>
       </c>
       <c r="G102">
-        <v>0.1625582356515354</v>
+        <v>0.1811093888466635</v>
       </c>
       <c r="H102">
-        <v>0.1126344062615286</v>
-      </c>
-      <c r="I102">
-        <v>0.1304080749911103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.128424367100608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.07263119166635082</v>
+        <v>0.07640233565667437</v>
       </c>
       <c r="C103">
-        <v>0.1268640335742621</v>
+        <v>0.142438877846857</v>
       </c>
       <c r="D103">
-        <v>0.09390940507703563</v>
+        <v>0.1023120308380546</v>
       </c>
       <c r="E103">
-        <v>0.1189674529262115</v>
+        <v>0.1351518377751771</v>
       </c>
       <c r="F103">
-        <v>0.2499776447163198</v>
+        <v>0.2717696482908654</v>
       </c>
       <c r="G103">
-        <v>0.1535191156790533</v>
+        <v>0.1723340140196394</v>
       </c>
       <c r="H103">
-        <v>0.08904519041006589</v>
-      </c>
-      <c r="I103">
-        <v>0.09508596595070107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.09959125557273196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1367433755436181</v>
+        <v>0.1485889592190582</v>
       </c>
       <c r="C104">
-        <v>0.237205704332268</v>
+        <v>0.2996307415663526</v>
       </c>
       <c r="D104">
-        <v>0.04345276770051616</v>
+        <v>0.04522107338573599</v>
       </c>
       <c r="E104">
-        <v>0.01976633577424696</v>
+        <v>0.01932586123602797</v>
       </c>
       <c r="F104">
-        <v>0.05964628474194305</v>
+        <v>0.06612333362511071</v>
       </c>
       <c r="G104">
-        <v>0.07579924968807926</v>
+        <v>0.08537621193332096</v>
       </c>
       <c r="H104">
-        <v>0.3104904750498892</v>
-      </c>
-      <c r="I104">
-        <v>0.1168958071694394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.3357338190343934</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1322018008336728</v>
+        <v>0.1556973464002102</v>
       </c>
       <c r="C105">
-        <v>0.119158718339346</v>
+        <v>0.1410879084986743</v>
       </c>
       <c r="D105">
-        <v>0.1093717930508452</v>
+        <v>0.1238266157403269</v>
       </c>
       <c r="E105">
-        <v>0.1130822465445777</v>
+        <v>0.1268711553209639</v>
       </c>
       <c r="F105">
-        <v>0.1269492452633585</v>
+        <v>0.1391593514795044</v>
       </c>
       <c r="G105">
-        <v>0.1452699100116799</v>
+        <v>0.1726577140084702</v>
       </c>
       <c r="H105">
-        <v>0.1236148701490437</v>
-      </c>
-      <c r="I105">
-        <v>0.1303514158074763</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1406999085518502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1245808495312381</v>
+        <v>0.1459243103611353</v>
       </c>
       <c r="C106">
-        <v>0.1195171454727035</v>
+        <v>0.1402546397262758</v>
       </c>
       <c r="D106">
-        <v>0.1232889283218637</v>
+        <v>0.1423605965583748</v>
       </c>
       <c r="E106">
-        <v>0.1290306245847208</v>
+        <v>0.1475274364854565</v>
       </c>
       <c r="F106">
-        <v>0.1380032015522098</v>
+        <v>0.152538878743941</v>
       </c>
       <c r="G106">
-        <v>0.1101388980266198</v>
+        <v>0.1269319340499185</v>
       </c>
       <c r="H106">
-        <v>0.1246967161370766</v>
-      </c>
-      <c r="I106">
-        <v>0.1307436363735679</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1444622040748981</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.2316686264750922</v>
+        <v>0.246885866313111</v>
       </c>
       <c r="C107">
-        <v>0.4404436462581451</v>
+        <v>0.4441573744389608</v>
       </c>
       <c r="D107">
-        <v>0.02254420906666961</v>
+        <v>0.02035464922002912</v>
       </c>
       <c r="E107">
-        <v>0.04279389426668972</v>
+        <v>0.0386920818234439</v>
       </c>
       <c r="F107">
-        <v>0.01454107958084505</v>
+        <v>0.01416392818757696</v>
       </c>
       <c r="G107">
-        <v>0.03930874676116372</v>
+        <v>0.03548985160309644</v>
       </c>
       <c r="H107">
-        <v>0.1751339717365131</v>
-      </c>
-      <c r="I107">
-        <v>0.03356582585488148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.2002562484137817</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.07323086114407321</v>
+        <v>0.0847838291091448</v>
       </c>
       <c r="C108">
-        <v>0.1281318969416042</v>
+        <v>0.1480375786260267</v>
       </c>
       <c r="D108">
-        <v>0.104443516340733</v>
+        <v>0.121039607426172</v>
       </c>
       <c r="E108">
-        <v>0.1449334840244068</v>
+        <v>0.1655313242998849</v>
       </c>
       <c r="F108">
-        <v>0.0801322818746316</v>
+        <v>0.09208852727329614</v>
       </c>
       <c r="G108">
-        <v>0.2125886263484113</v>
+        <v>0.2507525594777215</v>
       </c>
       <c r="H108">
-        <v>0.1210469816193209</v>
-      </c>
-      <c r="I108">
-        <v>0.1354923517068188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1377665737877539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.257554193548944</v>
+        <v>0.2852256916868097</v>
       </c>
       <c r="C109">
-        <v>0.1052415540348254</v>
+        <v>0.119469517106213</v>
       </c>
       <c r="D109">
-        <v>0.06161096849155445</v>
+        <v>0.06428359814215073</v>
       </c>
       <c r="E109">
-        <v>0.05878457704716212</v>
+        <v>0.06223344240709244</v>
       </c>
       <c r="F109">
-        <v>0.09335218459680657</v>
+        <v>0.1025932202926768</v>
       </c>
       <c r="G109">
-        <v>0.1739510864456442</v>
+        <v>0.1965545775861189</v>
       </c>
       <c r="H109">
-        <v>0.1505626827417684</v>
-      </c>
-      <c r="I109">
-        <v>0.09894275309329478</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1696399527789386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.09920851928812696</v>
+        <v>0.1111297290742261</v>
       </c>
       <c r="C110">
-        <v>0.118293664441349</v>
+        <v>0.1346837022166893</v>
       </c>
       <c r="D110">
-        <v>0.1165307708779523</v>
+        <v>0.1368825145192158</v>
       </c>
       <c r="E110">
-        <v>0.1438384397520634</v>
+        <v>0.1689838539682911</v>
       </c>
       <c r="F110">
-        <v>0.09416525084345891</v>
+        <v>0.1059987622901958</v>
       </c>
       <c r="G110">
-        <v>0.1688786038747332</v>
+        <v>0.1918609357777891</v>
       </c>
       <c r="H110">
-        <v>0.1347266457046938</v>
-      </c>
-      <c r="I110">
-        <v>0.1243581052176224</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1504605021535927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.2274408697168941</v>
+        <v>0.2665214310681543</v>
       </c>
       <c r="C111">
-        <v>0.1334650442391193</v>
+        <v>0.14999152248002</v>
       </c>
       <c r="D111">
-        <v>0.04446196593473325</v>
+        <v>0.05114504093000367</v>
       </c>
       <c r="E111">
-        <v>0.04429125236493471</v>
+        <v>0.05171074255144452</v>
       </c>
       <c r="F111">
-        <v>0.07194799163565567</v>
+        <v>0.08636076826196828</v>
       </c>
       <c r="G111">
-        <v>0.1412633040493833</v>
+        <v>0.1663539256641456</v>
       </c>
       <c r="H111">
-        <v>0.192981376525437</v>
-      </c>
-      <c r="I111">
-        <v>0.1441481955338427</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.2279165690442637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.2208853966989765</v>
+        <v>0.2583511595890113</v>
       </c>
       <c r="C112">
-        <v>0.1500210441264051</v>
+        <v>0.1711862264710905</v>
       </c>
       <c r="D112">
-        <v>0.05429847644031497</v>
+        <v>0.0650781744440822</v>
       </c>
       <c r="E112">
-        <v>0.05001523839643403</v>
+        <v>0.05841073689789136</v>
       </c>
       <c r="F112">
-        <v>0.07534776405308624</v>
+        <v>0.08622113965981174</v>
       </c>
       <c r="G112">
-        <v>0.1391519307604034</v>
+        <v>0.1644308835409535</v>
       </c>
       <c r="H112">
-        <v>0.1684211561116606</v>
-      </c>
-      <c r="I112">
-        <v>0.1418589934127191</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1963216793971593</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1389518338708237</v>
+        <v>0.1533232488071098</v>
       </c>
       <c r="C113">
-        <v>0.1261016213944967</v>
+        <v>0.138596682799195</v>
       </c>
       <c r="D113">
-        <v>0.07969338577807319</v>
+        <v>0.08822790173443952</v>
       </c>
       <c r="E113">
-        <v>0.08478279172614699</v>
+        <v>0.09212249191862863</v>
       </c>
       <c r="F113">
-        <v>0.1019165700745106</v>
+        <v>0.1142635827469667</v>
       </c>
       <c r="G113">
-        <v>0.1734517260835401</v>
+        <v>0.2102251703049273</v>
       </c>
       <c r="H113">
-        <v>0.1761717940034598</v>
-      </c>
-      <c r="I113">
-        <v>0.1189302770689489</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.2032409216887331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1192607293455417</v>
+        <v>0.1364344593947236</v>
       </c>
       <c r="C114">
-        <v>0.1138549142227643</v>
+        <v>0.1323903580029235</v>
       </c>
       <c r="D114">
-        <v>0.1460872220379568</v>
+        <v>0.1662751279098886</v>
       </c>
       <c r="E114">
-        <v>0.1432312819640905</v>
+        <v>0.1657510411138187</v>
       </c>
       <c r="F114">
-        <v>0.08940861812749015</v>
+        <v>0.1045616212491342</v>
       </c>
       <c r="G114">
-        <v>0.137441633145247</v>
+        <v>0.1548802235391751</v>
       </c>
       <c r="H114">
-        <v>0.1211725989891915</v>
-      </c>
-      <c r="I114">
-        <v>0.1295430021677179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1397071687903363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1224459719438151</v>
+        <v>0.1468929276212819</v>
       </c>
       <c r="C115">
-        <v>0.1297968808027663</v>
+        <v>0.1543308198983638</v>
       </c>
       <c r="D115">
-        <v>0.1207340433920477</v>
+        <v>0.1361625050124999</v>
       </c>
       <c r="E115">
-        <v>0.1353097858055752</v>
+        <v>0.1557320565352202</v>
       </c>
       <c r="F115">
-        <v>0.1322904250388239</v>
+        <v>0.1453602771497313</v>
       </c>
       <c r="G115">
-        <v>0.09424236364612586</v>
+        <v>0.104883188567298</v>
       </c>
       <c r="H115">
-        <v>0.1332551943192957</v>
-      </c>
-      <c r="I115">
-        <v>0.1319253350515505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.156638225215605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.05327572117209193</v>
+        <v>0.06309343264868242</v>
       </c>
       <c r="C116">
-        <v>0.1545592129870481</v>
+        <v>0.1634763322493608</v>
       </c>
       <c r="D116">
-        <v>0.1034902185741578</v>
+        <v>0.1170673062658232</v>
       </c>
       <c r="E116">
-        <v>0.1248841098524994</v>
+        <v>0.1398447260608164</v>
       </c>
       <c r="F116">
-        <v>0.2122944678336</v>
+        <v>0.232211833659951</v>
       </c>
       <c r="G116">
-        <v>0.1690346421976859</v>
+        <v>0.1949415123843879</v>
       </c>
       <c r="H116">
-        <v>0.0774450294930501</v>
-      </c>
-      <c r="I116">
-        <v>0.1050165978898668</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.08936485673097834</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1125134030533636</v>
+        <v>0.1256645621231599</v>
       </c>
       <c r="C117">
-        <v>0.1244979298109285</v>
+        <v>0.1410085842813867</v>
       </c>
       <c r="D117">
-        <v>0.1156091069021721</v>
+        <v>0.1323289819454244</v>
       </c>
       <c r="E117">
-        <v>0.152125001713374</v>
+        <v>0.174796912602017</v>
       </c>
       <c r="F117">
-        <v>0.1004182053948318</v>
+        <v>0.1178816062907719</v>
       </c>
       <c r="G117">
-        <v>0.1643130268217667</v>
+        <v>0.1839356504108213</v>
       </c>
       <c r="H117">
-        <v>0.1111187939460044</v>
-      </c>
-      <c r="I117">
-        <v>0.1194045323575589</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.1243837023464189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.2026720820575227</v>
+        <v>0.2398895326434633</v>
       </c>
       <c r="C118">
-        <v>0.1411250835068398</v>
+        <v>0.1649903201737553</v>
       </c>
       <c r="D118">
-        <v>0.06002193406860767</v>
+        <v>0.07103310260139842</v>
       </c>
       <c r="E118">
-        <v>0.05744703932024897</v>
+        <v>0.06717880075459419</v>
       </c>
       <c r="F118">
-        <v>0.06348051851271244</v>
+        <v>0.07525761591176496</v>
       </c>
       <c r="G118">
-        <v>0.1451156538613081</v>
+        <v>0.1768166465242059</v>
       </c>
       <c r="H118">
-        <v>0.171204762456876</v>
-      </c>
-      <c r="I118">
-        <v>0.1589329262158843</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.2048339813908179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.2902177106449498</v>
+        <v>0.3285861911738769</v>
       </c>
       <c r="C119">
-        <v>0.1798713267334447</v>
+        <v>0.2114363911610902</v>
       </c>
       <c r="D119">
-        <v>0.04464125607052045</v>
+        <v>0.04315645558898343</v>
       </c>
       <c r="E119">
-        <v>0.04622849620645018</v>
+        <v>0.0441668679349064</v>
       </c>
       <c r="F119">
-        <v>0.05722372708255055</v>
+        <v>0.05867096654786718</v>
       </c>
       <c r="G119">
-        <v>0.07384370646920441</v>
+        <v>0.07302752257029475</v>
       </c>
       <c r="H119">
-        <v>0.2143133241538926</v>
-      </c>
-      <c r="I119">
-        <v>0.09366045263898731</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.2409556050229812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.2495490274002831</v>
+        <v>0.2731257274081127</v>
       </c>
       <c r="C120">
-        <v>0.09096137816415797</v>
+        <v>0.1066707745730966</v>
       </c>
       <c r="D120">
-        <v>0.05014527655794872</v>
+        <v>0.05582131967980099</v>
       </c>
       <c r="E120">
-        <v>0.06168199018506278</v>
+        <v>0.06523547306276337</v>
       </c>
       <c r="F120">
-        <v>0.0783205143964608</v>
+        <v>0.09201111248153346</v>
       </c>
       <c r="G120">
-        <v>0.1291895403363534</v>
+        <v>0.1433469897929172</v>
       </c>
       <c r="H120">
-        <v>0.2285904712421153</v>
-      </c>
-      <c r="I120">
-        <v>0.111561801717618</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.2637886030017758</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.2137110750587563</v>
+        <v>0.2466870787808913</v>
       </c>
       <c r="C121">
-        <v>0.1765148291296418</v>
+        <v>0.2050446888233894</v>
       </c>
       <c r="D121">
-        <v>0.0713671408711857</v>
+        <v>0.08167691913838344</v>
       </c>
       <c r="E121">
-        <v>0.05836769352706214</v>
+        <v>0.06935469795695921</v>
       </c>
       <c r="F121">
-        <v>0.06677366026143777</v>
+        <v>0.08148834472375857</v>
       </c>
       <c r="G121">
-        <v>0.1234891070557219</v>
+        <v>0.1496767869682211</v>
       </c>
       <c r="H121">
-        <v>0.1382603892892726</v>
-      </c>
-      <c r="I121">
-        <v>0.1515161048069218</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1660714836083971</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.08765077953334489</v>
+        <v>0.1002781939380128</v>
       </c>
       <c r="C122">
-        <v>0.1162871920630475</v>
+        <v>0.1300995730032082</v>
       </c>
       <c r="D122">
-        <v>0.09670608771027735</v>
+        <v>0.112039644720075</v>
       </c>
       <c r="E122">
-        <v>0.1300229851241357</v>
+        <v>0.1485833299121138</v>
       </c>
       <c r="F122">
-        <v>0.1535885681057778</v>
+        <v>0.1780609595049467</v>
       </c>
       <c r="G122">
-        <v>0.1836753377091341</v>
+        <v>0.2111294075411214</v>
       </c>
       <c r="H122">
-        <v>0.1037908654988951</v>
-      </c>
-      <c r="I122">
-        <v>0.1282781842553877</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1198088913805224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.09604307943908917</v>
+        <v>0.1070645773822784</v>
       </c>
       <c r="C123">
-        <v>0.1001416183441018</v>
+        <v>0.1161253389083549</v>
       </c>
       <c r="D123">
-        <v>0.08758119603073329</v>
+        <v>0.0967786670068003</v>
       </c>
       <c r="E123">
-        <v>0.1102923265369121</v>
+        <v>0.1239333652514193</v>
       </c>
       <c r="F123">
-        <v>0.1436760449932641</v>
+        <v>0.1506046807193837</v>
       </c>
       <c r="G123">
-        <v>0.2283455956107076</v>
+        <v>0.2688378936296906</v>
       </c>
       <c r="H123">
-        <v>0.117586089069446</v>
-      </c>
-      <c r="I123">
-        <v>0.1163340499757458</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1366554771020728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.2817144992830538</v>
+        <v>0.3150238064308911</v>
       </c>
       <c r="C124">
-        <v>0.08419930698847486</v>
+        <v>0.117130340361128</v>
       </c>
       <c r="D124">
-        <v>0.04552383382664584</v>
+        <v>0.05534403156290595</v>
       </c>
       <c r="E124">
-        <v>0.0458129935196355</v>
+        <v>0.05653107638500354</v>
       </c>
       <c r="F124">
-        <v>0.04929464319351435</v>
+        <v>0.06196993520254964</v>
       </c>
       <c r="G124">
-        <v>0.1043836150533225</v>
+        <v>0.1184699220877536</v>
       </c>
       <c r="H124">
-        <v>0.235905419549487</v>
-      </c>
-      <c r="I124">
-        <v>0.1531656885858663</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.2755308879697682</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.3061289916271032</v>
+        <v>0.3333916268310096</v>
       </c>
       <c r="C125">
-        <v>0.09245579657512289</v>
+        <v>0.09740600509909507</v>
       </c>
       <c r="D125">
-        <v>0.06328405325981601</v>
+        <v>0.06679657130358435</v>
       </c>
       <c r="E125">
-        <v>0.06024208567594331</v>
+        <v>0.05985032092266349</v>
       </c>
       <c r="F125">
-        <v>0.06438221152836547</v>
+        <v>0.06915379226216166</v>
       </c>
       <c r="G125">
-        <v>0.1050813653429261</v>
+        <v>0.1142793270551793</v>
       </c>
       <c r="H125">
-        <v>0.2232027828362939</v>
-      </c>
-      <c r="I125">
-        <v>0.08522271315442921</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.2591223565263064</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.2136895265648091</v>
+        <v>0.2610806601767987</v>
       </c>
       <c r="C126">
-        <v>0.1026299361804515</v>
+        <v>0.1183254694668804</v>
       </c>
       <c r="D126">
-        <v>0.04262333499827621</v>
+        <v>0.0521725864306633</v>
       </c>
       <c r="E126">
-        <v>0.03706066500945415</v>
+        <v>0.04523552398169285</v>
       </c>
       <c r="F126">
-        <v>0.09608997182019839</v>
+        <v>0.1115949056383554</v>
       </c>
       <c r="G126">
-        <v>0.1713856832326024</v>
+        <v>0.1994371670322378</v>
       </c>
       <c r="H126">
-        <v>0.1756150403909718</v>
-      </c>
-      <c r="I126">
-        <v>0.1609058418032366</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.2121536872733713</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1068235748730632</v>
+        <v>0.1196746606996563</v>
       </c>
       <c r="C127">
-        <v>0.1299528851484342</v>
+        <v>0.1377905082309171</v>
       </c>
       <c r="D127">
-        <v>0.10459232555829</v>
+        <v>0.117881599779662</v>
       </c>
       <c r="E127">
-        <v>0.09555875209202445</v>
+        <v>0.09970517803929091</v>
       </c>
       <c r="F127">
-        <v>0.2107213049816859</v>
+        <v>0.2227798026274173</v>
       </c>
       <c r="G127">
-        <v>0.1963573877276957</v>
+        <v>0.2177035990945997</v>
       </c>
       <c r="H127">
-        <v>0.08058994653467398</v>
-      </c>
-      <c r="I127">
-        <v>0.0754038230841326</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.08446465152845661</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1695114461583349</v>
+        <v>0.1584168649749116</v>
       </c>
       <c r="C128">
-        <v>0.1120397049821346</v>
+        <v>0.1152709129942331</v>
       </c>
       <c r="D128">
-        <v>0.02621412472062894</v>
+        <v>0.02796097776506195</v>
       </c>
       <c r="E128">
-        <v>0.02334914496309549</v>
+        <v>0.02183650187797416</v>
       </c>
       <c r="F128">
-        <v>0.1492116067335941</v>
+        <v>0.1632909474017823</v>
       </c>
       <c r="G128">
-        <v>0.201186568136114</v>
+        <v>0.2155536760083512</v>
       </c>
       <c r="H128">
-        <v>0.2625189601421422</v>
-      </c>
-      <c r="I128">
-        <v>0.05596844416395559</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.2976701189776859</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1384915719190933</v>
+        <v>0.1531150173614204</v>
       </c>
       <c r="C129">
-        <v>0.1936810879670258</v>
+        <v>0.2191570637982236</v>
       </c>
       <c r="D129">
-        <v>0.04215306411610151</v>
+        <v>0.04585139558865685</v>
       </c>
       <c r="E129">
-        <v>0.04157944462579628</v>
+        <v>0.04522744804439911</v>
       </c>
       <c r="F129">
-        <v>0.07979937356169618</v>
+        <v>0.08454344221297638</v>
       </c>
       <c r="G129">
-        <v>0.220182823250053</v>
+        <v>0.2508851765460675</v>
       </c>
       <c r="H129">
-        <v>0.1811624579402457</v>
-      </c>
-      <c r="I129">
-        <v>0.1029501766199883</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.201220456448256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.3030081208030938</v>
+        <v>0.3436233501399257</v>
       </c>
       <c r="C130">
-        <v>0.1871682880663856</v>
+        <v>0.2122029236175334</v>
       </c>
       <c r="D130">
-        <v>0.0357658278358713</v>
+        <v>0.04236402868742787</v>
       </c>
       <c r="E130">
-        <v>0.02122016867163109</v>
+        <v>0.02554215692049802</v>
       </c>
       <c r="F130">
-        <v>0.05931531395141319</v>
+        <v>0.06622248510284964</v>
       </c>
       <c r="G130">
-        <v>0.09698439335237695</v>
+        <v>0.112187461413391</v>
       </c>
       <c r="H130">
-        <v>0.1688782103866606</v>
-      </c>
-      <c r="I130">
-        <v>0.1276596769325675</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1978575941183744</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.08115684932947198</v>
+        <v>0.09021282903794496</v>
       </c>
       <c r="C131">
-        <v>0.1244055433294473</v>
+        <v>0.1380879687227836</v>
       </c>
       <c r="D131">
-        <v>0.09999147577122099</v>
+        <v>0.1082475780134989</v>
       </c>
       <c r="E131">
-        <v>0.1069489013935372</v>
+        <v>0.1175466856676605</v>
       </c>
       <c r="F131">
-        <v>0.1772253290722669</v>
+        <v>0.1904357411275194</v>
       </c>
       <c r="G131">
-        <v>0.2267799775272549</v>
+        <v>0.2627797421412488</v>
       </c>
       <c r="H131">
-        <v>0.08397762889092733</v>
-      </c>
-      <c r="I131">
-        <v>0.09951429468587338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.09268945528934397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1086901823330645</v>
+        <v>0.1184200386078688</v>
       </c>
       <c r="C132">
-        <v>0.1084970282868942</v>
+        <v>0.1234315031882855</v>
       </c>
       <c r="D132">
-        <v>0.1100866887329802</v>
+        <v>0.1182420186754116</v>
       </c>
       <c r="E132">
-        <v>0.1122754722338807</v>
+        <v>0.1227303485182401</v>
       </c>
       <c r="F132">
-        <v>0.1514654308719925</v>
+        <v>0.1663670792111739</v>
       </c>
       <c r="G132">
-        <v>0.1936350954007258</v>
+        <v>0.2154137648257439</v>
       </c>
       <c r="H132">
-        <v>0.1174735269607105</v>
-      </c>
-      <c r="I132">
-        <v>0.09787657517975144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1353952469732762</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1200412424567054</v>
+        <v>0.1409943561511831</v>
       </c>
       <c r="C133">
-        <v>0.1066276170672483</v>
+        <v>0.1264583775147418</v>
       </c>
       <c r="D133">
-        <v>0.101949651636529</v>
+        <v>0.11870349382782</v>
       </c>
       <c r="E133">
-        <v>0.1253975436166098</v>
+        <v>0.145965800364632</v>
       </c>
       <c r="F133">
-        <v>0.1007063458888791</v>
+        <v>0.1302063995542212</v>
       </c>
       <c r="G133">
-        <v>0.1729263158372585</v>
+        <v>0.2019998957875785</v>
       </c>
       <c r="H133">
-        <v>0.1167558855588967</v>
-      </c>
-      <c r="I133">
-        <v>0.1555953979378732</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.1356716767998232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1090142339764396</v>
+        <v>0.1283536952508177</v>
       </c>
       <c r="C134">
-        <v>0.1096844258910414</v>
+        <v>0.1304720417754657</v>
       </c>
       <c r="D134">
-        <v>0.1355580615259406</v>
+        <v>0.1669057042297741</v>
       </c>
       <c r="E134">
-        <v>0.14110180761057</v>
+        <v>0.1576003296055203</v>
       </c>
       <c r="F134">
-        <v>0.1542450276486062</v>
+        <v>0.1704810802763158</v>
       </c>
       <c r="G134">
-        <v>0.08881968324520854</v>
+        <v>0.09810083808508034</v>
       </c>
       <c r="H134">
-        <v>0.1271882498756501</v>
-      </c>
-      <c r="I134">
-        <v>0.1343885102265437</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.148086310777026</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.07876539996167958</v>
+        <v>0.08764375305520677</v>
       </c>
       <c r="C135">
-        <v>0.1175530191356455</v>
+        <v>0.1335161927626504</v>
       </c>
       <c r="D135">
-        <v>0.1280301119442734</v>
+        <v>0.1346736356857876</v>
       </c>
       <c r="E135">
-        <v>0.1158111484954701</v>
+        <v>0.1216366504397771</v>
       </c>
       <c r="F135">
-        <v>0.2074064882221467</v>
+        <v>0.2298387654828351</v>
       </c>
       <c r="G135">
-        <v>0.1744690567065164</v>
+        <v>0.1944634162557867</v>
       </c>
       <c r="H135">
-        <v>0.08877340662275458</v>
-      </c>
-      <c r="I135">
-        <v>0.08919136891151366</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.09822758631795646</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.2361178985417024</v>
+        <v>0.267095175925368</v>
       </c>
       <c r="C136">
-        <v>0.1126955175320012</v>
+        <v>0.1329661341863665</v>
       </c>
       <c r="D136">
-        <v>0.04559565229593707</v>
+        <v>0.06063779097957715</v>
       </c>
       <c r="E136">
-        <v>0.04185927132245571</v>
+        <v>0.05495020566223966</v>
       </c>
       <c r="F136">
-        <v>0.08186742511606009</v>
+        <v>0.09398178447664561</v>
       </c>
       <c r="G136">
-        <v>0.1398617296828275</v>
+        <v>0.168039506908219</v>
       </c>
       <c r="H136">
-        <v>0.1796740905746483</v>
-      </c>
-      <c r="I136">
-        <v>0.1623284149343678</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.2223294018615842</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.07020908306953873</v>
+        <v>0.07654190643443599</v>
       </c>
       <c r="C137">
-        <v>0.1245365027595224</v>
+        <v>0.1362835620110305</v>
       </c>
       <c r="D137">
-        <v>0.1032783522920792</v>
+        <v>0.1138031012123405</v>
       </c>
       <c r="E137">
-        <v>0.1208270049013773</v>
+        <v>0.1322102477864771</v>
       </c>
       <c r="F137">
-        <v>0.2005632954433373</v>
+        <v>0.2281936516464181</v>
       </c>
       <c r="G137">
-        <v>0.205475749995032</v>
+        <v>0.2299586928884622</v>
       </c>
       <c r="H137">
-        <v>0.0770848697830406</v>
-      </c>
-      <c r="I137">
-        <v>0.09802514175607252</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.0830088380208356</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.08244420509116479</v>
+        <v>0.09159939075119639</v>
       </c>
       <c r="C138">
-        <v>0.1003005783585147</v>
+        <v>0.1169801151569327</v>
       </c>
       <c r="D138">
-        <v>0.1091176633430782</v>
+        <v>0.1228670805669695</v>
       </c>
       <c r="E138">
-        <v>0.1162678005474293</v>
+        <v>0.1345591273573712</v>
       </c>
       <c r="F138">
-        <v>0.2096334759242183</v>
+        <v>0.2421533095078302</v>
       </c>
       <c r="G138">
-        <v>0.1539190009302959</v>
+        <v>0.1767697782867827</v>
       </c>
       <c r="H138">
-        <v>0.1032586239044706</v>
-      </c>
-      <c r="I138">
-        <v>0.1250586519008283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1150711983729174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1257709906343006</v>
+        <v>0.1296018176730231</v>
       </c>
       <c r="C139">
-        <v>0.1141795204475769</v>
+        <v>0.1290591336783218</v>
       </c>
       <c r="D139">
-        <v>0.1190469785223211</v>
+        <v>0.1244968936653049</v>
       </c>
       <c r="E139">
-        <v>0.09607012019325924</v>
+        <v>0.1041750233508997</v>
       </c>
       <c r="F139">
-        <v>0.2234553873551277</v>
+        <v>0.2475746759833355</v>
       </c>
       <c r="G139">
-        <v>0.1486163343015127</v>
+        <v>0.1630791352422448</v>
       </c>
       <c r="H139">
-        <v>0.09304054754451135</v>
-      </c>
-      <c r="I139">
-        <v>0.07982012100139037</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1020133204068704</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1247783525175879</v>
+        <v>0.1348215899976763</v>
       </c>
       <c r="C140">
-        <v>0.1383468959549063</v>
+        <v>0.1582797197818404</v>
       </c>
       <c r="D140">
-        <v>0.1655879064199673</v>
+        <v>0.19575032971607</v>
       </c>
       <c r="E140">
-        <v>0.1295101515298626</v>
+        <v>0.1510407423844181</v>
       </c>
       <c r="F140">
-        <v>0.1181785420731617</v>
+        <v>0.1225407465433669</v>
       </c>
       <c r="G140">
-        <v>0.08808839289669369</v>
+        <v>0.09557746328836833</v>
       </c>
       <c r="H140">
-        <v>0.1240069145947305</v>
-      </c>
-      <c r="I140">
-        <v>0.1115028440130901</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.14198940828826</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.077087258323827</v>
+        <v>0.08237137925215178</v>
       </c>
       <c r="C141">
-        <v>0.1403328954757413</v>
+        <v>0.1548576211440136</v>
       </c>
       <c r="D141">
-        <v>0.1293166899728465</v>
+        <v>0.1384022470350861</v>
       </c>
       <c r="E141">
-        <v>0.1167495470325348</v>
+        <v>0.1253550321872637</v>
       </c>
       <c r="F141">
-        <v>0.2482262821253677</v>
+        <v>0.2745764639516337</v>
       </c>
       <c r="G141">
-        <v>0.127285204028196</v>
+        <v>0.1395239274594714</v>
       </c>
       <c r="H141">
-        <v>0.07801173335088432</v>
-      </c>
-      <c r="I141">
-        <v>0.08299038969060232</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.08491332897037958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.06747844499179347</v>
+        <v>0.08097304779567456</v>
       </c>
       <c r="C142">
-        <v>0.10429247846484</v>
+        <v>0.113041768484155</v>
       </c>
       <c r="D142">
-        <v>0.0828913892087326</v>
+        <v>0.09329446417978027</v>
       </c>
       <c r="E142">
-        <v>0.1103228277391237</v>
+        <v>0.1219095705910123</v>
       </c>
       <c r="F142">
-        <v>0.2176348431425628</v>
+        <v>0.2261635782218537</v>
       </c>
       <c r="G142">
-        <v>0.2122482397144647</v>
+        <v>0.2508301534426329</v>
       </c>
       <c r="H142">
-        <v>0.09842264639650215</v>
-      </c>
-      <c r="I142">
-        <v>0.1067091303419807</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1137874172848912</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.116282963573465</v>
+        <v>0.1372473923874978</v>
       </c>
       <c r="C143">
-        <v>0.1116693744367606</v>
+        <v>0.1322585710075431</v>
       </c>
       <c r="D143">
-        <v>0.1251964920713859</v>
+        <v>0.1468214930126983</v>
       </c>
       <c r="E143">
-        <v>0.1343000496294092</v>
+        <v>0.1612694866776425</v>
       </c>
       <c r="F143">
-        <v>0.08646434052082247</v>
+        <v>0.1016441445458746</v>
       </c>
       <c r="G143">
-        <v>0.1595902487966434</v>
+        <v>0.1835825989568174</v>
       </c>
       <c r="H143">
-        <v>0.1189033747494676</v>
-      </c>
-      <c r="I143">
-        <v>0.1475931562220456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.1371763134119262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.112580764778957</v>
+        <v>0.1331922146658452</v>
       </c>
       <c r="C144">
-        <v>0.1219372914039356</v>
+        <v>0.144782339215868</v>
       </c>
       <c r="D144">
-        <v>0.1660181450505657</v>
+        <v>0.190961852068674</v>
       </c>
       <c r="E144">
-        <v>0.1069240669862761</v>
+        <v>0.1219598526306241</v>
       </c>
       <c r="F144">
-        <v>0.1155086083891338</v>
+        <v>0.1280707726036174</v>
       </c>
       <c r="G144">
-        <v>0.1289763860694681</v>
+        <v>0.144458777826902</v>
       </c>
       <c r="H144">
-        <v>0.1186101852708319</v>
-      </c>
-      <c r="I144">
-        <v>0.1294445520508318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1365741909884693</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1687163053149328</v>
+        <v>0.1957997840603138</v>
       </c>
       <c r="C145">
-        <v>0.1205364158779736</v>
+        <v>0.1392174671273656</v>
       </c>
       <c r="D145">
-        <v>0.04896950541790927</v>
+        <v>0.05481319610693591</v>
       </c>
       <c r="E145">
-        <v>0.04982818276020318</v>
+        <v>0.05509609910399747</v>
       </c>
       <c r="F145">
-        <v>0.07692061058028378</v>
+        <v>0.0895770046248171</v>
       </c>
       <c r="G145">
-        <v>0.1854825088373205</v>
+        <v>0.2199896014537235</v>
       </c>
       <c r="H145">
-        <v>0.2204400775416768</v>
-      </c>
-      <c r="I145">
-        <v>0.1291063936697002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.2455068475228466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.07998224588375895</v>
+        <v>0.08650987859998358</v>
       </c>
       <c r="C146">
-        <v>0.1184141716430515</v>
+        <v>0.1120748264764994</v>
       </c>
       <c r="D146">
-        <v>0.1068993336478477</v>
+        <v>0.1047729561134326</v>
       </c>
       <c r="E146">
-        <v>0.1211991839511035</v>
+        <v>0.1298282458413979</v>
       </c>
       <c r="F146">
-        <v>0.250306508844848</v>
+        <v>0.291591623899547</v>
       </c>
       <c r="G146">
-        <v>0.1490645608078631</v>
+        <v>0.1680022684692903</v>
       </c>
       <c r="H146">
-        <v>0.09919606906853277</v>
-      </c>
-      <c r="I146">
-        <v>0.07493792615299448</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.1072202005998492</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.09279541023624054</v>
+        <v>0.1074539106652184</v>
       </c>
       <c r="C147">
-        <v>0.1100687155248494</v>
+        <v>0.1245042594418818</v>
       </c>
       <c r="D147">
-        <v>0.09996786846438789</v>
+        <v>0.1097830564719945</v>
       </c>
       <c r="E147">
-        <v>0.133952574162114</v>
+        <v>0.155247645642219</v>
       </c>
       <c r="F147">
-        <v>0.1883316015769893</v>
+        <v>0.1986792750032471</v>
       </c>
       <c r="G147">
-        <v>0.167685060343281</v>
+        <v>0.1916254085515974</v>
       </c>
       <c r="H147">
-        <v>0.1011679066459022</v>
-      </c>
-      <c r="I147">
-        <v>0.1060308630462358</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.112706444223842</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1494554658855074</v>
+        <v>0.1721962459244821</v>
       </c>
       <c r="C148">
-        <v>0.1272586467105292</v>
+        <v>0.1490339374446923</v>
       </c>
       <c r="D148">
-        <v>0.1176232800036237</v>
+        <v>0.1334525361300695</v>
       </c>
       <c r="E148">
-        <v>0.1078987298372461</v>
+        <v>0.1248331970507541</v>
       </c>
       <c r="F148">
-        <v>0.1144347353627604</v>
+        <v>0.1300117152872799</v>
       </c>
       <c r="G148">
-        <v>0.1164431055552715</v>
+        <v>0.1340615760571721</v>
       </c>
       <c r="H148">
-        <v>0.140844615931052</v>
-      </c>
-      <c r="I148">
-        <v>0.1260414207140098</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1564107921055499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.2632784382753142</v>
+        <v>0.2954167963336161</v>
       </c>
       <c r="C149">
-        <v>0.1458036719386057</v>
+        <v>0.1693561365246203</v>
       </c>
       <c r="D149">
-        <v>0.05407049441204333</v>
+        <v>0.06316705450805708</v>
       </c>
       <c r="E149">
-        <v>0.05956565006562872</v>
+        <v>0.06874198488640601</v>
       </c>
       <c r="F149">
-        <v>0.06549452713982255</v>
+        <v>0.07942531706120233</v>
       </c>
       <c r="G149">
-        <v>0.1203472654938938</v>
+        <v>0.1448080231834671</v>
       </c>
       <c r="H149">
-        <v>0.1532703093741719</v>
-      </c>
-      <c r="I149">
-        <v>0.1381696433005197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.179084687502631</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1766407676311275</v>
+        <v>0.2147914900029382</v>
       </c>
       <c r="C150">
-        <v>0.1074024926400668</v>
+        <v>0.127915902345612</v>
       </c>
       <c r="D150">
-        <v>0.05362120842120079</v>
+        <v>0.06758357078983013</v>
       </c>
       <c r="E150">
-        <v>0.04086042482628741</v>
+        <v>0.04947370665680324</v>
       </c>
       <c r="F150">
-        <v>0.06574118659002152</v>
+        <v>0.07818213408685024</v>
       </c>
       <c r="G150">
-        <v>0.1851789043836311</v>
+        <v>0.2164537269495024</v>
       </c>
       <c r="H150">
-        <v>0.2102725126279949</v>
-      </c>
-      <c r="I150">
-        <v>0.1602825028796699</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.2455994691684638</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.09905969222737966</v>
+        <v>0.1211104080283314</v>
       </c>
       <c r="C151">
-        <v>0.1317853394595764</v>
+        <v>0.1503273956829966</v>
       </c>
       <c r="D151">
-        <v>0.1106598856911761</v>
+        <v>0.1291074989589171</v>
       </c>
       <c r="E151">
-        <v>0.1285036973311792</v>
+        <v>0.1484501419612</v>
       </c>
       <c r="F151">
-        <v>0.08830299531432455</v>
+        <v>0.105556393507267</v>
       </c>
       <c r="G151">
-        <v>0.1778618989773259</v>
+        <v>0.2029943365902758</v>
       </c>
       <c r="H151">
-        <v>0.1271136883114737</v>
-      </c>
-      <c r="I151">
-        <v>0.1367128026875645</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.1424538252710122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.2575073136265627</v>
+        <v>0.3186612971476852</v>
       </c>
       <c r="C152">
-        <v>0.1667426354374612</v>
+        <v>0.1852841081232039</v>
       </c>
       <c r="D152">
-        <v>0.06137944637964401</v>
+        <v>0.06871347086993383</v>
       </c>
       <c r="E152">
-        <v>0.04844918694849302</v>
+        <v>0.04954346394534627</v>
       </c>
       <c r="F152">
-        <v>0.06980112095997483</v>
+        <v>0.07759535675139512</v>
       </c>
       <c r="G152">
-        <v>0.110234812446166</v>
+        <v>0.1263991022449897</v>
       </c>
       <c r="H152">
-        <v>0.1541171856094272</v>
-      </c>
-      <c r="I152">
-        <v>0.1317682985922711</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.1738032009174458</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1585273000193961</v>
+        <v>0.181627653057791</v>
       </c>
       <c r="C153">
-        <v>0.1101414185230353</v>
+        <v>0.1331597442070995</v>
       </c>
       <c r="D153">
-        <v>0.06082925554568677</v>
+        <v>0.07683686229812696</v>
       </c>
       <c r="E153">
-        <v>0.05823662919221448</v>
+        <v>0.07460953792448312</v>
       </c>
       <c r="F153">
-        <v>0.05103047732783414</v>
+        <v>0.0606887711572411</v>
       </c>
       <c r="G153">
-        <v>0.1340759908455582</v>
+        <v>0.1663588246665852</v>
       </c>
       <c r="H153">
-        <v>0.2521853969453647</v>
-      </c>
-      <c r="I153">
-        <v>0.1749735316009103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.3067186066886731</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.3175375339946917</v>
+        <v>0.4032785732963355</v>
       </c>
       <c r="C154">
-        <v>0.1105172351131577</v>
+        <v>0.1264640888462011</v>
       </c>
       <c r="D154">
-        <v>0.0583959283572047</v>
+        <v>0.07356995494823138</v>
       </c>
       <c r="E154">
-        <v>0.05712586729460305</v>
+        <v>0.0754431226138898</v>
       </c>
       <c r="F154">
-        <v>0.07354251542622979</v>
+        <v>0.07614009281386812</v>
       </c>
       <c r="G154">
-        <v>0.0850109001702557</v>
+        <v>0.08839832177530356</v>
       </c>
       <c r="H154">
-        <v>0.1507339129474555</v>
-      </c>
-      <c r="I154">
-        <v>0.1471361066964019</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.1567058457061704</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.06382032614998492</v>
+        <v>0.07127858943679712</v>
       </c>
       <c r="C155">
-        <v>0.1112730216294408</v>
+        <v>0.1141826107463473</v>
       </c>
       <c r="D155">
-        <v>0.09861763758866887</v>
+        <v>0.1053880101155212</v>
       </c>
       <c r="E155">
-        <v>0.1172861450699289</v>
+        <v>0.131788997437401</v>
       </c>
       <c r="F155">
-        <v>0.2715763470027013</v>
+        <v>0.3064491204892837</v>
       </c>
       <c r="G155">
-        <v>0.1480509114817691</v>
+        <v>0.1616586758672653</v>
       </c>
       <c r="H155">
-        <v>0.09592801331986921</v>
-      </c>
-      <c r="I155">
-        <v>0.09344759775763689</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1092539959073845</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.09294710288136906</v>
+        <v>0.1043129937029459</v>
       </c>
       <c r="C156">
-        <v>0.1436114133545105</v>
+        <v>0.1569600021446259</v>
       </c>
       <c r="D156">
-        <v>0.109467891371442</v>
+        <v>0.1223305286867192</v>
       </c>
       <c r="E156">
-        <v>0.1069253814703013</v>
+        <v>0.1183271940703577</v>
       </c>
       <c r="F156">
-        <v>0.2444125249145452</v>
+        <v>0.2684087896975852</v>
       </c>
       <c r="G156">
-        <v>0.116703371781383</v>
+        <v>0.1219337071529723</v>
       </c>
       <c r="H156">
-        <v>0.1011339733772352</v>
-      </c>
-      <c r="I156">
-        <v>0.08479834084921367</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1077267845447936</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1319426325534858</v>
+        <v>0.1487437253620451</v>
       </c>
       <c r="C157">
-        <v>0.146874539935234</v>
+        <v>0.1632562429315262</v>
       </c>
       <c r="D157">
-        <v>0.08903612825013295</v>
+        <v>0.1016693963106735</v>
       </c>
       <c r="E157">
-        <v>0.1242779343914474</v>
+        <v>0.1366620885156516</v>
       </c>
       <c r="F157">
-        <v>0.1599636083512433</v>
+        <v>0.1777312867859059</v>
       </c>
       <c r="G157">
-        <v>0.1453610056517882</v>
+        <v>0.1560602752096642</v>
       </c>
       <c r="H157">
-        <v>0.1102432737248485</v>
-      </c>
-      <c r="I157">
-        <v>0.09230087714181975</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1158769848845334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.2047509812050742</v>
+        <v>0.2201610262598146</v>
       </c>
       <c r="C158">
-        <v>0.1190144240289515</v>
+        <v>0.1271991833577141</v>
       </c>
       <c r="D158">
-        <v>0.04819493803342474</v>
+        <v>0.04988073381561511</v>
       </c>
       <c r="E158">
-        <v>0.04495638971411338</v>
+        <v>0.04661867135521942</v>
       </c>
       <c r="F158">
-        <v>0.0706102131582915</v>
+        <v>0.07426981476143638</v>
       </c>
       <c r="G158">
-        <v>0.1789670396457402</v>
+        <v>0.2015532969175081</v>
       </c>
       <c r="H158">
-        <v>0.2431202382236287</v>
-      </c>
-      <c r="I158">
-        <v>0.09038577599077569</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.2803172735326923</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.2966236514821161</v>
+        <v>0.3194742487539486</v>
       </c>
       <c r="C159">
-        <v>0.1809884093688878</v>
+        <v>0.2032988239722245</v>
       </c>
       <c r="D159">
-        <v>0.0397506059485196</v>
+        <v>0.04099828733812701</v>
       </c>
       <c r="E159">
-        <v>0.03365240594739073</v>
+        <v>0.0347371340497748</v>
       </c>
       <c r="F159">
-        <v>0.04576530786350694</v>
+        <v>0.04904325210425169</v>
       </c>
       <c r="G159">
-        <v>0.1257227780965959</v>
+        <v>0.1422907400240707</v>
       </c>
       <c r="H159">
-        <v>0.1847058332180344</v>
-      </c>
-      <c r="I159">
-        <v>0.09279100807494851</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.2101575137576026</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1078380283594408</v>
+        <v>0.1407201326987841</v>
       </c>
       <c r="C160">
-        <v>0.1376636791905058</v>
+        <v>0.1650489087127479</v>
       </c>
       <c r="D160">
-        <v>0.0290389929055926</v>
+        <v>0.03844395915875087</v>
       </c>
       <c r="E160">
-        <v>0.02317704490115009</v>
+        <v>0.02772547237914795</v>
       </c>
       <c r="F160">
-        <v>0.04529638370473216</v>
+        <v>0.05728819699721931</v>
       </c>
       <c r="G160">
-        <v>0.1399691637412162</v>
+        <v>0.1699163986263315</v>
       </c>
       <c r="H160">
-        <v>0.3371955731711748</v>
-      </c>
-      <c r="I160">
-        <v>0.1798211340261877</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.4008569314270183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.09780697567515687</v>
+        <v>0.1107030665716829</v>
       </c>
       <c r="C161">
-        <v>0.1097362090757856</v>
+        <v>0.1213831760217184</v>
       </c>
       <c r="D161">
-        <v>0.09480612543359412</v>
+        <v>0.1048709325356612</v>
       </c>
       <c r="E161">
-        <v>0.1028386157107558</v>
+        <v>0.1140901745992719</v>
       </c>
       <c r="F161">
-        <v>0.2785335191123817</v>
+        <v>0.309211926392621</v>
       </c>
       <c r="G161">
-        <v>0.1546113113276348</v>
+        <v>0.1610751680565644</v>
       </c>
       <c r="H161">
-        <v>0.0712834131342934</v>
-      </c>
-      <c r="I161">
-        <v>0.09038383053039772</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.07866555582248012</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.3001021167121603</v>
+        <v>0.3140891439107035</v>
       </c>
       <c r="C162">
-        <v>0.1660703234070322</v>
+        <v>0.1890838422297284</v>
       </c>
       <c r="D162">
-        <v>0.04251174012215022</v>
+        <v>0.05000629354031758</v>
       </c>
       <c r="E162">
-        <v>0.0779134263978549</v>
+        <v>0.08555921034979096</v>
       </c>
       <c r="F162">
-        <v>0.05940849111518699</v>
+        <v>0.06967749569410153</v>
       </c>
       <c r="G162">
-        <v>0.07680255149075438</v>
+        <v>0.09152093182802876</v>
       </c>
       <c r="H162">
-        <v>0.1669656318026812</v>
-      </c>
-      <c r="I162">
-        <v>0.1102257189521797</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.2000630824473294</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1282579341333304</v>
+        <v>0.1306391082144145</v>
       </c>
       <c r="C163">
-        <v>0.155396166118899</v>
+        <v>0.1658244461460236</v>
       </c>
       <c r="D163">
-        <v>0.1666587691143988</v>
+        <v>0.203454419311175</v>
       </c>
       <c r="E163">
-        <v>0.1591350527705314</v>
+        <v>0.1818613044960885</v>
       </c>
       <c r="F163">
-        <v>0.08818022845787825</v>
+        <v>0.09022014927943543</v>
       </c>
       <c r="G163">
-        <v>0.06512016948808382</v>
+        <v>0.07085412748119181</v>
       </c>
       <c r="H163">
-        <v>0.134741060125478</v>
-      </c>
-      <c r="I163">
-        <v>0.1025106197914004</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.1571464450716712</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.1403696624510557</v>
+        <v>0.1548603842113353</v>
       </c>
       <c r="C164">
-        <v>0.1155551712268563</v>
+        <v>0.1256447028422883</v>
       </c>
       <c r="D164">
-        <v>0.07876513434528781</v>
+        <v>0.08514319051470291</v>
       </c>
       <c r="E164">
-        <v>0.07736603307200171</v>
+        <v>0.08307110611080819</v>
       </c>
       <c r="F164">
-        <v>0.09608315269049153</v>
+        <v>0.1064254335153607</v>
       </c>
       <c r="G164">
-        <v>0.1744967708624459</v>
+        <v>0.2113027726738484</v>
       </c>
       <c r="H164">
-        <v>0.2004601206653369</v>
-      </c>
-      <c r="I164">
-        <v>0.1169039546865241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.2335524101316562</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.3365789094015298</v>
+        <v>0.3839978383275547</v>
       </c>
       <c r="C165">
-        <v>0.3898673899882154</v>
+        <v>0.4447949068078314</v>
       </c>
       <c r="D165">
-        <v>0.005681190965143428</v>
+        <v>0.007719710980848974</v>
       </c>
       <c r="E165">
-        <v>0.01656378879589461</v>
+        <v>0.02011984398697831</v>
       </c>
       <c r="F165">
-        <v>0.01844158083668351</v>
+        <v>0.02351782692867896</v>
       </c>
       <c r="G165">
-        <v>0.0126195391136787</v>
+        <v>0.01614737775400567</v>
       </c>
       <c r="H165">
-        <v>0.08469048345722685</v>
-      </c>
-      <c r="I165">
-        <v>0.1355571174416278</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.103702495214102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.2510734779408674</v>
+        <v>0.2867228510348533</v>
       </c>
       <c r="C166">
-        <v>0.1362492870052472</v>
+        <v>0.1548915558285319</v>
       </c>
       <c r="D166">
-        <v>0.04258563331030938</v>
+        <v>0.05042502720566073</v>
       </c>
       <c r="E166">
-        <v>0.05107347138702956</v>
+        <v>0.0559282431252359</v>
       </c>
       <c r="F166">
-        <v>0.07845796705304313</v>
+        <v>0.09013323066363682</v>
       </c>
       <c r="G166">
-        <v>0.1379349302108023</v>
+        <v>0.1590523054664539</v>
       </c>
       <c r="H166">
-        <v>0.1809610846576042</v>
-      </c>
-      <c r="I166">
-        <v>0.1216641484350967</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.2028467866756277</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.2887371818166963</v>
+        <v>0.3461786888402634</v>
       </c>
       <c r="C167">
-        <v>0.08142054577493857</v>
+        <v>0.08993516079990638</v>
       </c>
       <c r="D167">
-        <v>0.03667605263687993</v>
+        <v>0.04435158657604214</v>
       </c>
       <c r="E167">
-        <v>0.05100522903686705</v>
+        <v>0.06350153019173266</v>
       </c>
       <c r="F167">
-        <v>0.04653609694166998</v>
+        <v>0.05798174039597154</v>
       </c>
       <c r="G167">
-        <v>0.1132230312961551</v>
+        <v>0.1352016442957296</v>
       </c>
       <c r="H167">
-        <v>0.2216178499781027</v>
-      </c>
-      <c r="I167">
-        <v>0.1607840125186905</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.2628496489003542</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.05604813979653923</v>
+        <v>0.06099973215874373</v>
       </c>
       <c r="C168">
-        <v>0.13090226867748</v>
+        <v>0.1504484847253059</v>
       </c>
       <c r="D168">
-        <v>0.07578287087579229</v>
+        <v>0.07956963823423216</v>
       </c>
       <c r="E168">
-        <v>0.08169823113202984</v>
+        <v>0.08564350060639174</v>
       </c>
       <c r="F168">
-        <v>0.2557985368740346</v>
+        <v>0.2906778779408107</v>
       </c>
       <c r="G168">
-        <v>0.213912047887381</v>
+        <v>0.2499160541672564</v>
       </c>
       <c r="H168">
-        <v>0.07622112575710814</v>
-      </c>
-      <c r="I168">
-        <v>0.1096367789996348</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.0827447121672592</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.09276014293527324</v>
+        <v>0.1287651017803383</v>
       </c>
       <c r="C169">
-        <v>0.1107956905644927</v>
+        <v>0.1222484385335821</v>
       </c>
       <c r="D169">
-        <v>0.06608812575248602</v>
+        <v>0.0656374773672119</v>
       </c>
       <c r="E169">
-        <v>0.1061909608702273</v>
+        <v>0.1179993632725888</v>
       </c>
       <c r="F169">
-        <v>0.3060122686525325</v>
+        <v>0.3439213664240235</v>
       </c>
       <c r="G169">
-        <v>0.1349318502781309</v>
+        <v>0.1476898243564284</v>
       </c>
       <c r="H169">
-        <v>0.07402639082673512</v>
-      </c>
-      <c r="I169">
-        <v>0.1091945701201222</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.07373842826582709</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.1063630745907325</v>
+        <v>0.1105966273440143</v>
       </c>
       <c r="C170">
-        <v>0.1407946858642692</v>
+        <v>0.1474624805723312</v>
       </c>
       <c r="D170">
-        <v>0.09383567189736257</v>
+        <v>0.1006204201945408</v>
       </c>
       <c r="E170">
-        <v>0.0843544827705808</v>
+        <v>0.09333301166759897</v>
       </c>
       <c r="F170">
-        <v>0.2373245487355264</v>
+        <v>0.2634471593143596</v>
       </c>
       <c r="G170">
-        <v>0.1724889730020967</v>
+        <v>0.1947308428032131</v>
       </c>
       <c r="H170">
-        <v>0.08599006992983255</v>
-      </c>
-      <c r="I170">
-        <v>0.07884849320959933</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.08980945810394191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.2154676134513339</v>
+        <v>0.2258536324277033</v>
       </c>
       <c r="C171">
-        <v>0.1408850357742454</v>
+        <v>0.1491842361585095</v>
       </c>
       <c r="D171">
-        <v>0.03005121711111545</v>
+        <v>0.03074554173074942</v>
       </c>
       <c r="E171">
-        <v>0.0299132080510839</v>
+        <v>0.03028821038012459</v>
       </c>
       <c r="F171">
-        <v>0.05338178047570305</v>
+        <v>0.05316346328874142</v>
       </c>
       <c r="G171">
-        <v>0.2031084145553393</v>
+        <v>0.226484675730685</v>
       </c>
       <c r="H171">
-        <v>0.2533458609608938</v>
-      </c>
-      <c r="I171">
-        <v>0.07384686962028514</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.2842802402834868</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1698999493455857</v>
+        <v>0.2350162148597018</v>
       </c>
       <c r="C172">
-        <v>0.1403738428460847</v>
+        <v>0.1406489625967335</v>
       </c>
       <c r="D172">
-        <v>0.1275108532272795</v>
+        <v>0.118457218178501</v>
       </c>
       <c r="E172">
-        <v>0.0851325176783774</v>
+        <v>0.07937357058308439</v>
       </c>
       <c r="F172">
-        <v>0.1798954034835541</v>
+        <v>0.1848954277696791</v>
       </c>
       <c r="G172">
-        <v>0.1087157198515543</v>
+        <v>0.1244755890585339</v>
       </c>
       <c r="H172">
-        <v>0.1167480893364041</v>
-      </c>
-      <c r="I172">
-        <v>0.0717236242311602</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1171330169537662</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1040924859829561</v>
+        <v>0.1158267941565879</v>
       </c>
       <c r="C173">
-        <v>0.108031661371213</v>
+        <v>0.1267464954459157</v>
       </c>
       <c r="D173">
-        <v>0.1372544624666272</v>
+        <v>0.1576788575359753</v>
       </c>
       <c r="E173">
-        <v>0.1316416962077472</v>
+        <v>0.1502306954517311</v>
       </c>
       <c r="F173">
-        <v>0.1032702246293277</v>
+        <v>0.123501033083822</v>
       </c>
       <c r="G173">
-        <v>0.1706665933426703</v>
+        <v>0.1949823992520903</v>
       </c>
       <c r="H173">
-        <v>0.1140403626134063</v>
-      </c>
-      <c r="I173">
-        <v>0.1310025133860522</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.1310337250738778</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.3041220663350978</v>
+        <v>0.3644728665950311</v>
       </c>
       <c r="C174">
-        <v>0.07839904903007297</v>
+        <v>0.09049275363061439</v>
       </c>
       <c r="D174">
-        <v>0.05005612471098984</v>
+        <v>0.06214058818521741</v>
       </c>
       <c r="E174">
-        <v>0.0333920221542046</v>
+        <v>0.03959592141933525</v>
       </c>
       <c r="F174">
-        <v>0.0433553781846982</v>
+        <v>0.04973421472406876</v>
       </c>
       <c r="G174">
-        <v>0.09142814512440293</v>
+        <v>0.1082303997196882</v>
       </c>
       <c r="H174">
-        <v>0.2401574306338021</v>
-      </c>
-      <c r="I174">
-        <v>0.1590897838267316</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.2853332557260449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1625456352397696</v>
+        <v>0.1820022730734294</v>
       </c>
       <c r="C175">
-        <v>0.07217569298259049</v>
+        <v>0.08576289340845407</v>
       </c>
       <c r="D175">
-        <v>0.06443193699394208</v>
+        <v>0.07386184460004887</v>
       </c>
       <c r="E175">
-        <v>0.04988217689520504</v>
+        <v>0.05600482859156605</v>
       </c>
       <c r="F175">
-        <v>0.07095468895894792</v>
+        <v>0.08556839057131074</v>
       </c>
       <c r="G175">
-        <v>0.178897002393192</v>
+        <v>0.2140300240965931</v>
       </c>
       <c r="H175">
-        <v>0.2573573794486836</v>
-      </c>
-      <c r="I175">
-        <v>0.1437554870876692</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.3027697456585977</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1240755796993117</v>
+        <v>0.1416276770325509</v>
       </c>
       <c r="C176">
-        <v>0.1167905678723631</v>
+        <v>0.1343492391748876</v>
       </c>
       <c r="D176">
-        <v>0.1326740962624682</v>
+        <v>0.1500003564582642</v>
       </c>
       <c r="E176">
-        <v>0.1390051297328065</v>
+        <v>0.1638164188474296</v>
       </c>
       <c r="F176">
-        <v>0.09471846594507632</v>
+        <v>0.1101484661912243</v>
       </c>
       <c r="G176">
-        <v>0.133914253131318</v>
+        <v>0.1489034392266446</v>
       </c>
       <c r="H176">
-        <v>0.1331984070633082</v>
-      </c>
-      <c r="I176">
-        <v>0.1256235002933478</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1511544030689987</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.2207426814260906</v>
+        <v>0.2486935436797786</v>
       </c>
       <c r="C177">
-        <v>0.1815841929268284</v>
+        <v>0.2050442929911528</v>
       </c>
       <c r="D177">
-        <v>0.0447915500771901</v>
+        <v>0.04955221921435533</v>
       </c>
       <c r="E177">
-        <v>0.0399504293780115</v>
+        <v>0.04482017270396429</v>
       </c>
       <c r="F177">
-        <v>0.05149464841733926</v>
+        <v>0.05773898793753138</v>
       </c>
       <c r="G177">
-        <v>0.1611414736207475</v>
+        <v>0.1905145211889417</v>
       </c>
       <c r="H177">
-        <v>0.1718753748547599</v>
-      </c>
-      <c r="I177">
-        <v>0.1284196492990329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.2036362622842759</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1893053659528914</v>
+        <v>0.22668763019208</v>
       </c>
       <c r="C178">
-        <v>0.1243719331105737</v>
+        <v>0.1555801096270136</v>
       </c>
       <c r="D178">
-        <v>0.04203027937690153</v>
+        <v>0.05442956921335463</v>
       </c>
       <c r="E178">
-        <v>0.05285415170601168</v>
+        <v>0.06819971498875227</v>
       </c>
       <c r="F178">
-        <v>0.0498909673036226</v>
+        <v>0.05966125753946179</v>
       </c>
       <c r="G178">
-        <v>0.08291946489442445</v>
+        <v>0.09373261041172408</v>
       </c>
       <c r="H178">
-        <v>0.2857397870525304</v>
-      </c>
-      <c r="I178">
-        <v>0.172888050603044</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.3417091080276137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1851516367042651</v>
+        <v>0.1809246904374247</v>
       </c>
       <c r="C179">
-        <v>0.1335725245255782</v>
+        <v>0.1445253752562724</v>
       </c>
       <c r="D179">
-        <v>0.0941221659935125</v>
+        <v>0.1088678893361639</v>
       </c>
       <c r="E179">
-        <v>0.08726273855367349</v>
+        <v>0.1015367210846284</v>
       </c>
       <c r="F179">
-        <v>0.1669009252140062</v>
+        <v>0.1873405592987971</v>
       </c>
       <c r="G179">
-        <v>0.1620716528426656</v>
+        <v>0.1779458588775842</v>
       </c>
       <c r="H179">
-        <v>0.08936928523037593</v>
-      </c>
-      <c r="I179">
-        <v>0.08154907093592298</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.09885890570912931</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.2568219348770059</v>
+        <v>0.3062438375479596</v>
       </c>
       <c r="C180">
-        <v>0.1250216576831252</v>
+        <v>0.1330159051005131</v>
       </c>
       <c r="D180">
-        <v>0.0425878891817521</v>
+        <v>0.04704905716546005</v>
       </c>
       <c r="E180">
-        <v>0.05192991424511954</v>
+        <v>0.05616719014436553</v>
       </c>
       <c r="F180">
-        <v>0.08055629377371312</v>
+        <v>0.08849259929655731</v>
       </c>
       <c r="G180">
-        <v>0.08833951201572667</v>
+        <v>0.09854383480901185</v>
       </c>
       <c r="H180">
-        <v>0.2355154960923796</v>
-      </c>
-      <c r="I180">
-        <v>0.1192273021311778</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.2704875759361326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.2400972887646837</v>
+        <v>0.2968437268484019</v>
       </c>
       <c r="C181">
-        <v>0.1061987254325298</v>
+        <v>0.1227871632523963</v>
       </c>
       <c r="D181">
-        <v>0.06400991567911772</v>
+        <v>0.07371416172129432</v>
       </c>
       <c r="E181">
-        <v>0.05597650544172532</v>
+        <v>0.06786387236628647</v>
       </c>
       <c r="F181">
-        <v>0.06540851287009661</v>
+        <v>0.07488400697901457</v>
       </c>
       <c r="G181">
-        <v>0.145506086269371</v>
+        <v>0.157378341851082</v>
       </c>
       <c r="H181">
-        <v>0.1814902913810276</v>
-      </c>
-      <c r="I181">
-        <v>0.1413126741614484</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.2065287269815248</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1062504929369316</v>
+        <v>0.1103498570832064</v>
       </c>
       <c r="C182">
-        <v>0.1324449133085691</v>
+        <v>0.1423396431928678</v>
       </c>
       <c r="D182">
-        <v>0.1089951075810516</v>
+        <v>0.1111958840661821</v>
       </c>
       <c r="E182">
-        <v>0.1079760340757214</v>
+        <v>0.1122753189276192</v>
       </c>
       <c r="F182">
-        <v>0.210327523621518</v>
+        <v>0.2315478825948317</v>
       </c>
       <c r="G182">
-        <v>0.1620071968013945</v>
+        <v>0.1757520137672557</v>
       </c>
       <c r="H182">
-        <v>0.1096451711633086</v>
-      </c>
-      <c r="I182">
-        <v>0.06235356051150528</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.116539400368037</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.08453863558376425</v>
+        <v>0.0923157255324176</v>
       </c>
       <c r="C183">
-        <v>0.1383590355333723</v>
+        <v>0.1508510016570052</v>
       </c>
       <c r="D183">
-        <v>0.1069943253941932</v>
+        <v>0.1220054296004603</v>
       </c>
       <c r="E183">
-        <v>0.1023085730862321</v>
+        <v>0.1154169142452502</v>
       </c>
       <c r="F183">
-        <v>0.2364164600470737</v>
+        <v>0.259637011740976</v>
       </c>
       <c r="G183">
-        <v>0.16037402227849</v>
+        <v>0.1706913548635288</v>
       </c>
       <c r="H183">
-        <v>0.079939616335211</v>
-      </c>
-      <c r="I183">
-        <v>0.09106933174166354</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.08908256236036198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1161017374532768</v>
+        <v>0.136791840792996</v>
       </c>
       <c r="C184">
-        <v>0.1058988507158866</v>
+        <v>0.121770273031508</v>
       </c>
       <c r="D184">
-        <v>0.1206325163232991</v>
+        <v>0.142198267008048</v>
       </c>
       <c r="E184">
-        <v>0.1281564567389039</v>
+        <v>0.1492053286715426</v>
       </c>
       <c r="F184">
-        <v>0.09806819120923949</v>
+        <v>0.1141317237164884</v>
       </c>
       <c r="G184">
-        <v>0.1588454536862336</v>
+        <v>0.1807732317018745</v>
       </c>
       <c r="H184">
-        <v>0.1341248610787359</v>
-      </c>
-      <c r="I184">
-        <v>0.1381719327944245</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1551293350775426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.2184104012113628</v>
+        <v>0.2483380583447124</v>
       </c>
       <c r="C185">
-        <v>0.1191228522872894</v>
+        <v>0.1316250029847361</v>
       </c>
       <c r="D185">
-        <v>0.04498772592815024</v>
+        <v>0.0518202311280274</v>
       </c>
       <c r="E185">
-        <v>0.04553961029396409</v>
+        <v>0.05101196221377558</v>
       </c>
       <c r="F185">
-        <v>0.07298188902051372</v>
+        <v>0.08546694011321446</v>
       </c>
       <c r="G185">
-        <v>0.2168273188566316</v>
+        <v>0.2453623200230337</v>
       </c>
       <c r="H185">
-        <v>0.1648250270597283</v>
-      </c>
-      <c r="I185">
-        <v>0.1173051753423598</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.1863754851925003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1297896927466043</v>
+        <v>0.1461061633523881</v>
       </c>
       <c r="C186">
-        <v>0.1529199339640302</v>
+        <v>0.1587625250329733</v>
       </c>
       <c r="D186">
-        <v>0.08335370549253415</v>
+        <v>0.09652284458411514</v>
       </c>
       <c r="E186">
-        <v>0.1370010748139886</v>
+        <v>0.1477465193144316</v>
       </c>
       <c r="F186">
-        <v>0.1606543934363231</v>
+        <v>0.1779659020937925</v>
       </c>
       <c r="G186">
-        <v>0.1546738120060674</v>
+        <v>0.1689817980335924</v>
       </c>
       <c r="H186">
-        <v>0.09263275854471092</v>
-      </c>
-      <c r="I186">
-        <v>0.08897462899574123</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.1039142475887069</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1306414125919869</v>
+        <v>0.1392921272961372</v>
       </c>
       <c r="C187">
-        <v>0.1463862300034678</v>
+        <v>0.1594358478268051</v>
       </c>
       <c r="D187">
-        <v>0.1247680794485087</v>
+        <v>0.1434706432018426</v>
       </c>
       <c r="E187">
-        <v>0.1453874319022062</v>
+        <v>0.1663988660816086</v>
       </c>
       <c r="F187">
-        <v>0.1280991332770379</v>
+        <v>0.1478766231557095</v>
       </c>
       <c r="G187">
-        <v>0.08291845075509907</v>
+        <v>0.09781332897422648</v>
       </c>
       <c r="H187">
-        <v>0.1332500468988397</v>
-      </c>
-      <c r="I187">
-        <v>0.1085492151228536</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1457125634636705</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1780082661103776</v>
+        <v>0.16392535761459</v>
       </c>
       <c r="C188">
-        <v>0.108305004775551</v>
+        <v>0.1243784364857766</v>
       </c>
       <c r="D188">
-        <v>0.09352277148495351</v>
+        <v>0.1087391802802233</v>
       </c>
       <c r="E188">
-        <v>0.08470530386071895</v>
+        <v>0.09768063146141631</v>
       </c>
       <c r="F188">
-        <v>0.167477931322158</v>
+        <v>0.1832253258806499</v>
       </c>
       <c r="G188">
-        <v>0.1749610386002784</v>
+        <v>0.1910979357797258</v>
       </c>
       <c r="H188">
-        <v>0.129331204959819</v>
-      </c>
-      <c r="I188">
-        <v>0.0636884788861434</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.1309531324976182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.1329998752190819</v>
+        <v>0.1545839668482851</v>
       </c>
       <c r="C189">
-        <v>0.1329209176690363</v>
+        <v>0.1599703905076253</v>
       </c>
       <c r="D189">
-        <v>0.1171963394233663</v>
+        <v>0.1317470264003041</v>
       </c>
       <c r="E189">
-        <v>0.11137734951633</v>
+        <v>0.1242486063084966</v>
       </c>
       <c r="F189">
-        <v>0.1083158886999287</v>
+        <v>0.1262669637343309</v>
       </c>
       <c r="G189">
-        <v>0.1429557211592164</v>
+        <v>0.1590794102765905</v>
       </c>
       <c r="H189">
-        <v>0.1230967582395314</v>
-      </c>
-      <c r="I189">
-        <v>0.131137150073509</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.1441036359243676</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.188334770585952</v>
+        <v>0.1956214430888391</v>
       </c>
       <c r="C190">
-        <v>0.1363495909129052</v>
+        <v>0.146852188787642</v>
       </c>
       <c r="D190">
-        <v>0.1591670273003013</v>
+        <v>0.1714277486066588</v>
       </c>
       <c r="E190">
-        <v>0.09768248742511795</v>
+        <v>0.1085651676638461</v>
       </c>
       <c r="F190">
-        <v>0.150463781578394</v>
+        <v>0.1721920362315321</v>
       </c>
       <c r="G190">
-        <v>0.1032518623530408</v>
+        <v>0.1147959151099791</v>
       </c>
       <c r="H190">
-        <v>0.08161295209679532</v>
-      </c>
-      <c r="I190">
-        <v>0.0831375277474935</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.09054550051150273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.2074348005859797</v>
+        <v>0.229707158728409</v>
       </c>
       <c r="C191">
-        <v>0.1151287590449788</v>
+        <v>0.133364904984769</v>
       </c>
       <c r="D191">
-        <v>0.04459844570017126</v>
+        <v>0.05447900290816034</v>
       </c>
       <c r="E191">
-        <v>0.03332504716788164</v>
+        <v>0.03847339100002618</v>
       </c>
       <c r="F191">
-        <v>0.06966749309510609</v>
+        <v>0.07795019275748269</v>
       </c>
       <c r="G191">
-        <v>0.1838995991206855</v>
+        <v>0.2209069550925275</v>
       </c>
       <c r="H191">
-        <v>0.211417880570593</v>
-      </c>
-      <c r="I191">
-        <v>0.1345279747146039</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.2451183945286253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.09693587106626619</v>
+        <v>0.1135830357508688</v>
       </c>
       <c r="C192">
-        <v>0.1255466385105695</v>
+        <v>0.144927724518609</v>
       </c>
       <c r="D192">
-        <v>0.1219251091783892</v>
+        <v>0.1418604154425903</v>
       </c>
       <c r="E192">
-        <v>0.1327607612821629</v>
+        <v>0.1559743074247824</v>
       </c>
       <c r="F192">
-        <v>0.08509083022101534</v>
+        <v>0.09696824401955603</v>
       </c>
       <c r="G192">
-        <v>0.1666728204300369</v>
+        <v>0.1922514592282391</v>
       </c>
       <c r="H192">
-        <v>0.1346403673683711</v>
-      </c>
-      <c r="I192">
-        <v>0.1364276019431889</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1544348136153542</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1465784614940097</v>
+        <v>0.1726372532055451</v>
       </c>
       <c r="C193">
-        <v>0.1342105475323244</v>
+        <v>0.1627741135441148</v>
       </c>
       <c r="D193">
-        <v>0.0975129369050962</v>
+        <v>0.1110718457125627</v>
       </c>
       <c r="E193">
-        <v>0.09704568627227918</v>
+        <v>0.1110733232876705</v>
       </c>
       <c r="F193">
-        <v>0.09788387562656579</v>
+        <v>0.1146104444739546</v>
       </c>
       <c r="G193">
-        <v>0.1569403485334759</v>
+        <v>0.1759803172484619</v>
       </c>
       <c r="H193">
-        <v>0.128504099219712</v>
-      </c>
-      <c r="I193">
-        <v>0.1413240444165369</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1518527025276904</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1706311231656011</v>
+        <v>0.1928875350583905</v>
       </c>
       <c r="C194">
-        <v>0.1477676831057687</v>
+        <v>0.1710833935920643</v>
       </c>
       <c r="D194">
-        <v>0.09135472600298752</v>
+        <v>0.1032536952255276</v>
       </c>
       <c r="E194">
-        <v>0.08192843418279103</v>
+        <v>0.09465489306060393</v>
       </c>
       <c r="F194">
-        <v>0.07615275272734698</v>
+        <v>0.09135456613442951</v>
       </c>
       <c r="G194">
-        <v>0.1383219197572269</v>
+        <v>0.1618698678721431</v>
       </c>
       <c r="H194">
-        <v>0.1603952879802436</v>
-      </c>
-      <c r="I194">
-        <v>0.1334480730780344</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.1848960490568411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1540223514378183</v>
+        <v>0.1752830957835225</v>
       </c>
       <c r="C195">
-        <v>0.1305119729258429</v>
+        <v>0.1441395979035577</v>
       </c>
       <c r="D195">
-        <v>0.08016412853256961</v>
+        <v>0.08737807477354827</v>
       </c>
       <c r="E195">
-        <v>0.07049779563968857</v>
+        <v>0.07659656600250039</v>
       </c>
       <c r="F195">
-        <v>0.0997186694279569</v>
+        <v>0.1091122974634645</v>
       </c>
       <c r="G195">
-        <v>0.1901277686650941</v>
+        <v>0.2291141576946983</v>
       </c>
       <c r="H195">
-        <v>0.1541234268033543</v>
-      </c>
-      <c r="I195">
-        <v>0.1208338865676754</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.1783762103787083</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.2464218018585068</v>
+        <v>0.2906097942784763</v>
       </c>
       <c r="C196">
-        <v>0.1274909189943902</v>
+        <v>0.1476763349504274</v>
       </c>
       <c r="D196">
-        <v>0.04577187183810939</v>
+        <v>0.06136085149392816</v>
       </c>
       <c r="E196">
-        <v>0.03915211974540536</v>
+        <v>0.05279143274385281</v>
       </c>
       <c r="F196">
-        <v>0.09310993328003171</v>
+        <v>0.1086794342261289</v>
       </c>
       <c r="G196">
-        <v>0.1290846495020918</v>
+        <v>0.1526503842546008</v>
       </c>
       <c r="H196">
-        <v>0.1543737069327021</v>
-      </c>
-      <c r="I196">
-        <v>0.1645949978487626</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.1862317680525857</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.09912878162136463</v>
+        <v>0.1168670723268736</v>
       </c>
       <c r="C197">
-        <v>0.1080043352585786</v>
+        <v>0.1258413042349118</v>
       </c>
       <c r="D197">
-        <v>0.1179904717139282</v>
+        <v>0.1353353686080238</v>
       </c>
       <c r="E197">
-        <v>0.1413770928780129</v>
+        <v>0.1648868189840736</v>
       </c>
       <c r="F197">
-        <v>0.08781844135346828</v>
+        <v>0.1046358534163848</v>
       </c>
       <c r="G197">
-        <v>0.1867226296447806</v>
+        <v>0.2136089038012246</v>
       </c>
       <c r="H197">
-        <v>0.1191553849135951</v>
-      </c>
-      <c r="I197">
-        <v>0.1398028626162718</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.1388246786285078</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.08249010320773423</v>
+        <v>0.09173231291473163</v>
       </c>
       <c r="C198">
-        <v>0.1090609916436798</v>
+        <v>0.1208184110168262</v>
       </c>
       <c r="D198">
-        <v>0.1065291595143135</v>
+        <v>0.1204044946394204</v>
       </c>
       <c r="E198">
-        <v>0.1040754477233306</v>
+        <v>0.1123910425892005</v>
       </c>
       <c r="F198">
-        <v>0.2289619798856488</v>
+        <v>0.2469465572899332</v>
       </c>
       <c r="G198">
-        <v>0.1759696401926108</v>
+        <v>0.194193346437833</v>
       </c>
       <c r="H198">
-        <v>0.09956696908073694</v>
-      </c>
-      <c r="I198">
-        <v>0.09334570875194537</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.113513835112055</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.08148781975447444</v>
+        <v>0.08934799000041269</v>
       </c>
       <c r="C199">
-        <v>0.1086237403495881</v>
+        <v>0.1256128723664336</v>
       </c>
       <c r="D199">
-        <v>0.09274914838884776</v>
+        <v>0.1026756913434788</v>
       </c>
       <c r="E199">
-        <v>0.1127618972968051</v>
+        <v>0.1228778649541373</v>
       </c>
       <c r="F199">
-        <v>0.2645252653339293</v>
+        <v>0.2935192920855009</v>
       </c>
       <c r="G199">
-        <v>0.1420894088750798</v>
+        <v>0.1605821309117274</v>
       </c>
       <c r="H199">
-        <v>0.09526108390461933</v>
-      </c>
-      <c r="I199">
-        <v>0.1025016360966562</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.1053841583383092</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.1960157314787525</v>
+        <v>0.2230492739034387</v>
       </c>
       <c r="C200">
-        <v>0.1673961537788798</v>
+        <v>0.1790186359255448</v>
       </c>
       <c r="D200">
-        <v>0.1056552210216579</v>
+        <v>0.113088701751915</v>
       </c>
       <c r="E200">
-        <v>0.09643990490232199</v>
+        <v>0.1012583142441112</v>
       </c>
       <c r="F200">
-        <v>0.114966410842289</v>
+        <v>0.1311096595731031</v>
       </c>
       <c r="G200">
-        <v>0.07828851013037537</v>
+        <v>0.08185936594847784</v>
       </c>
       <c r="H200">
-        <v>0.1494438798881716</v>
-      </c>
-      <c r="I200">
-        <v>0.09179418795755183</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.1706160486534094</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.09284028751370042</v>
+        <v>0.1023840932003811</v>
       </c>
       <c r="C201">
-        <v>0.126469740432016</v>
+        <v>0.1428963385003503</v>
       </c>
       <c r="D201">
-        <v>0.09717552491375453</v>
+        <v>0.1012411896027066</v>
       </c>
       <c r="E201">
-        <v>0.08956402973958461</v>
+        <v>0.09360077454394511</v>
       </c>
       <c r="F201">
-        <v>0.2257014776117319</v>
+        <v>0.2560871207351517</v>
       </c>
       <c r="G201">
-        <v>0.1701236904978439</v>
+        <v>0.1932738828697591</v>
       </c>
       <c r="H201">
-        <v>0.09532619214054279</v>
-      </c>
-      <c r="I201">
-        <v>0.1027990571508258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.1105166005477061</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.08906747159898937</v>
+        <v>0.09727428045549594</v>
       </c>
       <c r="C202">
-        <v>0.1217139683769453</v>
+        <v>0.1364046146124879</v>
       </c>
       <c r="D202">
-        <v>0.1102156421340315</v>
+        <v>0.1193055114922628</v>
       </c>
       <c r="E202">
-        <v>0.1159369481126064</v>
+        <v>0.1287034876709783</v>
       </c>
       <c r="F202">
-        <v>0.2009461665879965</v>
+        <v>0.2269566011942696</v>
       </c>
       <c r="G202">
-        <v>0.167200324592831</v>
+        <v>0.187832018226831</v>
       </c>
       <c r="H202">
-        <v>0.0927880064544864</v>
-      </c>
-      <c r="I202">
-        <v>0.1021314721421137</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.1035234863476746</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1156951846558975</v>
+        <v>0.1249616749055066</v>
       </c>
       <c r="C203">
-        <v>0.1183865845901222</v>
+        <v>0.1338290187036852</v>
       </c>
       <c r="D203">
-        <v>0.08712756101720895</v>
+        <v>0.09822026268164395</v>
       </c>
       <c r="E203">
-        <v>0.1194596319898802</v>
+        <v>0.1312797193150829</v>
       </c>
       <c r="F203">
-        <v>0.2465328522268003</v>
+        <v>0.2667565139494672</v>
       </c>
       <c r="G203">
-        <v>0.1302898805803573</v>
+        <v>0.1412039808583475</v>
       </c>
       <c r="H203">
-        <v>0.09258337745752232</v>
-      </c>
-      <c r="I203">
-        <v>0.0899249274822113</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.1037488295862666</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1147383761619386</v>
+        <v>0.1247610263045377</v>
       </c>
       <c r="C204">
-        <v>0.124224078509452</v>
+        <v>0.1435212151163886</v>
       </c>
       <c r="D204">
-        <v>0.126870931655433</v>
+        <v>0.1501420491490067</v>
       </c>
       <c r="E204">
-        <v>0.134612982641505</v>
+        <v>0.1528713873891364</v>
       </c>
       <c r="F204">
-        <v>0.091864174135287</v>
+        <v>0.103688047674246</v>
       </c>
       <c r="G204">
-        <v>0.1735435247498013</v>
+        <v>0.1933222306976946</v>
       </c>
       <c r="H204">
-        <v>0.111669929692683</v>
-      </c>
-      <c r="I204">
-        <v>0.1224760024539002</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.13169404366899</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.1821101105830124</v>
+        <v>0.1839854935963791</v>
       </c>
       <c r="C205">
-        <v>0.1103645808534834</v>
+        <v>0.1259624689294144</v>
       </c>
       <c r="D205">
-        <v>0.08309930751692486</v>
+        <v>0.09765565472665201</v>
       </c>
       <c r="E205">
-        <v>0.07970190059116117</v>
+        <v>0.09395940945031403</v>
       </c>
       <c r="F205">
-        <v>0.1784321896095981</v>
+        <v>0.1940452566819635</v>
       </c>
       <c r="G205">
-        <v>0.1612008204709302</v>
+        <v>0.1810796131591384</v>
       </c>
       <c r="H205">
-        <v>0.1189528055686762</v>
-      </c>
-      <c r="I205">
-        <v>0.0861382848062137</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.1233121034561386</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.09420534962461745</v>
+        <v>0.1058533697426679</v>
       </c>
       <c r="C206">
-        <v>0.1167405007384722</v>
+        <v>0.1314708065999635</v>
       </c>
       <c r="D206">
-        <v>0.106285662349599</v>
+        <v>0.1195959014749904</v>
       </c>
       <c r="E206">
-        <v>0.135030365170503</v>
+        <v>0.1523530519122334</v>
       </c>
       <c r="F206">
-        <v>0.1897166882559323</v>
+        <v>0.2153473036838549</v>
       </c>
       <c r="G206">
-        <v>0.1482338095006092</v>
+        <v>0.1639382966975876</v>
       </c>
       <c r="H206">
-        <v>0.09739412247244419</v>
-      </c>
-      <c r="I206">
-        <v>0.1123935018878228</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.1114412698887022</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.07507323145371815</v>
+        <v>0.0904202862239569</v>
       </c>
       <c r="C207">
-        <v>0.1414035048709024</v>
+        <v>0.1500171559470488</v>
       </c>
       <c r="D207">
-        <v>0.1063758308223383</v>
+        <v>0.1219797430535863</v>
       </c>
       <c r="E207">
-        <v>0.1006124698390181</v>
+        <v>0.1151987321988757</v>
       </c>
       <c r="F207">
-        <v>0.2600507634961935</v>
+        <v>0.2879598940101635</v>
       </c>
       <c r="G207">
-        <v>0.140233915237398</v>
+        <v>0.1410601619785349</v>
       </c>
       <c r="H207">
-        <v>0.08986233374614329</v>
-      </c>
-      <c r="I207">
-        <v>0.0863879505342882</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.09336402658783377</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.1470670488378978</v>
+        <v>0.1650213971185859</v>
       </c>
       <c r="C208">
-        <v>0.1477997795029708</v>
+        <v>0.1742811928552553</v>
       </c>
       <c r="D208">
-        <v>0.05109180730113947</v>
+        <v>0.06197139288567906</v>
       </c>
       <c r="E208">
-        <v>0.05782816211050418</v>
+        <v>0.07304708523831395</v>
       </c>
       <c r="F208">
-        <v>0.08121582141870759</v>
+        <v>0.09663524233160956</v>
       </c>
       <c r="G208">
-        <v>0.2033341336422911</v>
+        <v>0.2499698405085633</v>
       </c>
       <c r="H208">
-        <v>0.1496850600344274</v>
-      </c>
-      <c r="I208">
-        <v>0.1619781871520615</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.1790738490619928</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.09316112614785491</v>
+        <v>0.09904152506540514</v>
       </c>
       <c r="C209">
-        <v>0.1231855628360534</v>
+        <v>0.1357591992163551</v>
       </c>
       <c r="D209">
-        <v>0.1096314813364671</v>
+        <v>0.1246645357119675</v>
       </c>
       <c r="E209">
-        <v>0.1297812524299695</v>
+        <v>0.1455953418039012</v>
       </c>
       <c r="F209">
-        <v>0.1625850612133269</v>
+        <v>0.1779976164420894</v>
       </c>
       <c r="G209">
-        <v>0.1830459507894745</v>
+        <v>0.2046274751069575</v>
       </c>
       <c r="H209">
-        <v>0.09906510305990292</v>
-      </c>
-      <c r="I209">
-        <v>0.0995444621869508</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.112314306653324</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.09416209512510303</v>
+        <v>0.08531160689681891</v>
       </c>
       <c r="C210">
-        <v>0.1425792566176212</v>
+        <v>0.1506090837682281</v>
       </c>
       <c r="D210">
-        <v>0.09792691849089248</v>
+        <v>0.1010589462616225</v>
       </c>
       <c r="E210">
-        <v>0.09895502267345094</v>
+        <v>0.1196836600999702</v>
       </c>
       <c r="F210">
-        <v>0.1639893332640997</v>
+        <v>0.1742939074281647</v>
       </c>
       <c r="G210">
-        <v>0.2079420620287281</v>
+        <v>0.248998480491961</v>
       </c>
       <c r="H210">
-        <v>0.1096410675690002</v>
-      </c>
-      <c r="I210">
-        <v>0.08480424423110441</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.1200443150532344</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0736950631988692</v>
+        <v>0.09196198216495999</v>
       </c>
       <c r="C211">
-        <v>0.1484985993133206</v>
+        <v>0.1515614266376669</v>
       </c>
       <c r="D211">
-        <v>0.1435907201209679</v>
+        <v>0.1748005006003524</v>
       </c>
       <c r="E211">
-        <v>0.1036749973247729</v>
+        <v>0.119123347051213</v>
       </c>
       <c r="F211">
-        <v>0.1907751275676991</v>
+        <v>0.211117485082098</v>
       </c>
       <c r="G211">
-        <v>0.1226353980012167</v>
+        <v>0.1222977057838611</v>
       </c>
       <c r="H211">
-        <v>0.1168472524651612</v>
-      </c>
-      <c r="I211">
-        <v>0.1002828420079923</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.1291375526798486</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1554395501891753</v>
+        <v>0.1830559327096264</v>
       </c>
       <c r="C212">
-        <v>0.1665551355733564</v>
+        <v>0.1916909436040452</v>
       </c>
       <c r="D212">
-        <v>0.1025311378801416</v>
+        <v>0.1143305061621065</v>
       </c>
       <c r="E212">
-        <v>0.08749683043868545</v>
+        <v>0.09710909518520361</v>
       </c>
       <c r="F212">
-        <v>0.07098167662947985</v>
+        <v>0.08478054277467706</v>
       </c>
       <c r="G212">
-        <v>0.1137210072423093</v>
+        <v>0.1320993702576977</v>
       </c>
       <c r="H212">
-        <v>0.1693930975033345</v>
-      </c>
-      <c r="I212">
-        <v>0.1338815645435175</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.1969336093066435</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1121544189889202</v>
+        <v>0.1284556847472006</v>
       </c>
       <c r="C213">
-        <v>0.1151285866764017</v>
+        <v>0.1362384163157753</v>
       </c>
       <c r="D213">
-        <v>0.1323820981436757</v>
+        <v>0.149699158197989</v>
       </c>
       <c r="E213">
-        <v>0.1346906812116505</v>
+        <v>0.1530985505786248</v>
       </c>
       <c r="F213">
-        <v>0.1126647961236373</v>
+        <v>0.1342433198971347</v>
       </c>
       <c r="G213">
-        <v>0.1462358144725225</v>
+        <v>0.1619123816747031</v>
       </c>
       <c r="H213">
-        <v>0.118154835346699</v>
-      </c>
-      <c r="I213">
-        <v>0.128588769036493</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.1363524885885724</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1857990569453909</v>
+        <v>0.2291112069354672</v>
       </c>
       <c r="C214">
-        <v>0.1577124952014342</v>
+        <v>0.1803066402803493</v>
       </c>
       <c r="D214">
-        <v>0.09251004606256537</v>
+        <v>0.1049467229070913</v>
       </c>
       <c r="E214">
-        <v>0.07568563462048818</v>
+        <v>0.08631875984934879</v>
       </c>
       <c r="F214">
-        <v>0.08804396197846694</v>
+        <v>0.1048376538612321</v>
       </c>
       <c r="G214">
-        <v>0.09480854618020021</v>
+        <v>0.1087832598057341</v>
       </c>
       <c r="H214">
-        <v>0.1627366718085027</v>
-      </c>
-      <c r="I214">
-        <v>0.1427035872029515</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.1856957563607772</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1866675094833668</v>
+        <v>0.2173281488389051</v>
       </c>
       <c r="C215">
-        <v>0.1405316665711426</v>
+        <v>0.1597729740141545</v>
       </c>
       <c r="D215">
-        <v>0.0721839355669453</v>
+        <v>0.08432670885773194</v>
       </c>
       <c r="E215">
-        <v>0.07735425949285882</v>
+        <v>0.08909988639325768</v>
       </c>
       <c r="F215">
-        <v>0.07130610269978931</v>
+        <v>0.08498993805822953</v>
       </c>
       <c r="G215">
-        <v>0.1458221929417869</v>
+        <v>0.1734190372555227</v>
       </c>
       <c r="H215">
-        <v>0.1654109792394814</v>
-      </c>
-      <c r="I215">
-        <v>0.1407233540046287</v>
+        <v>0.1910633065821985</v>
       </c>
     </row>
   </sheetData>
